--- a/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
+++ b/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/bldgs/pcfurfe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/pcfurfe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6CE801-1256-674E-9958-63BFE53C4866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9265518-8980-EF4D-A7C7-2F944EE68A55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="1340" windowWidth="18400" windowHeight="14920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="1420" windowWidth="18400" windowHeight="14920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1578,7 +1578,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="12">
       <alignment wrapText="1"/>
     </xf>
@@ -1592,7 +1592,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="13" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1602,6 +1601,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Body: normal cell" xfId="13" xr:uid="{F0294189-DCE2-4A9C-A206-033C029239E6}"/>
@@ -1970,7 +1970,7 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="54">
+      <c r="C1" s="63">
         <v>44307</v>
       </c>
     </row>
@@ -13351,693 +13351,693 @@
       </c>
     </row>
     <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="60"/>
-      <c r="C308" s="60"/>
-      <c r="D308" s="60"/>
-      <c r="E308" s="60"/>
-      <c r="F308" s="60"/>
-      <c r="G308" s="60"/>
-      <c r="H308" s="60"/>
-      <c r="I308" s="60"/>
-      <c r="J308" s="60"/>
-      <c r="K308" s="60"/>
-      <c r="L308" s="60"/>
-      <c r="M308" s="60"/>
-      <c r="N308" s="60"/>
-      <c r="O308" s="60"/>
-      <c r="P308" s="60"/>
-      <c r="Q308" s="60"/>
-      <c r="R308" s="60"/>
-      <c r="S308" s="60"/>
-      <c r="T308" s="60"/>
-      <c r="U308" s="60"/>
-      <c r="V308" s="60"/>
-      <c r="W308" s="60"/>
-      <c r="X308" s="60"/>
-      <c r="Y308" s="60"/>
-      <c r="Z308" s="60"/>
-      <c r="AA308" s="60"/>
-      <c r="AB308" s="60"/>
-      <c r="AC308" s="60"/>
-      <c r="AD308" s="60"/>
-      <c r="AE308" s="60"/>
-      <c r="AF308" s="60"/>
-      <c r="AG308" s="60"/>
-      <c r="AH308" s="60"/>
+      <c r="B308" s="54"/>
+      <c r="C308" s="54"/>
+      <c r="D308" s="54"/>
+      <c r="E308" s="54"/>
+      <c r="F308" s="54"/>
+      <c r="G308" s="54"/>
+      <c r="H308" s="54"/>
+      <c r="I308" s="54"/>
+      <c r="J308" s="54"/>
+      <c r="K308" s="54"/>
+      <c r="L308" s="54"/>
+      <c r="M308" s="54"/>
+      <c r="N308" s="54"/>
+      <c r="O308" s="54"/>
+      <c r="P308" s="54"/>
+      <c r="Q308" s="54"/>
+      <c r="R308" s="54"/>
+      <c r="S308" s="54"/>
+      <c r="T308" s="54"/>
+      <c r="U308" s="54"/>
+      <c r="V308" s="54"/>
+      <c r="W308" s="54"/>
+      <c r="X308" s="54"/>
+      <c r="Y308" s="54"/>
+      <c r="Z308" s="54"/>
+      <c r="AA308" s="54"/>
+      <c r="AB308" s="54"/>
+      <c r="AC308" s="54"/>
+      <c r="AD308" s="54"/>
+      <c r="AE308" s="54"/>
+      <c r="AF308" s="54"/>
+      <c r="AG308" s="54"/>
+      <c r="AH308" s="54"/>
     </row>
     <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B511" s="60"/>
-      <c r="C511" s="60"/>
-      <c r="D511" s="60"/>
-      <c r="E511" s="60"/>
-      <c r="F511" s="60"/>
-      <c r="G511" s="60"/>
-      <c r="H511" s="60"/>
-      <c r="I511" s="60"/>
-      <c r="J511" s="60"/>
-      <c r="K511" s="60"/>
-      <c r="L511" s="60"/>
-      <c r="M511" s="60"/>
-      <c r="N511" s="60"/>
-      <c r="O511" s="60"/>
-      <c r="P511" s="60"/>
-      <c r="Q511" s="60"/>
-      <c r="R511" s="60"/>
-      <c r="S511" s="60"/>
-      <c r="T511" s="60"/>
-      <c r="U511" s="60"/>
-      <c r="V511" s="60"/>
-      <c r="W511" s="60"/>
-      <c r="X511" s="60"/>
-      <c r="Y511" s="60"/>
-      <c r="Z511" s="60"/>
-      <c r="AA511" s="60"/>
-      <c r="AB511" s="60"/>
-      <c r="AC511" s="60"/>
-      <c r="AD511" s="60"/>
-      <c r="AE511" s="60"/>
-      <c r="AF511" s="60"/>
-      <c r="AG511" s="60"/>
-      <c r="AH511" s="60"/>
+      <c r="B511" s="54"/>
+      <c r="C511" s="54"/>
+      <c r="D511" s="54"/>
+      <c r="E511" s="54"/>
+      <c r="F511" s="54"/>
+      <c r="G511" s="54"/>
+      <c r="H511" s="54"/>
+      <c r="I511" s="54"/>
+      <c r="J511" s="54"/>
+      <c r="K511" s="54"/>
+      <c r="L511" s="54"/>
+      <c r="M511" s="54"/>
+      <c r="N511" s="54"/>
+      <c r="O511" s="54"/>
+      <c r="P511" s="54"/>
+      <c r="Q511" s="54"/>
+      <c r="R511" s="54"/>
+      <c r="S511" s="54"/>
+      <c r="T511" s="54"/>
+      <c r="U511" s="54"/>
+      <c r="V511" s="54"/>
+      <c r="W511" s="54"/>
+      <c r="X511" s="54"/>
+      <c r="Y511" s="54"/>
+      <c r="Z511" s="54"/>
+      <c r="AA511" s="54"/>
+      <c r="AB511" s="54"/>
+      <c r="AC511" s="54"/>
+      <c r="AD511" s="54"/>
+      <c r="AE511" s="54"/>
+      <c r="AF511" s="54"/>
+      <c r="AG511" s="54"/>
+      <c r="AH511" s="54"/>
     </row>
     <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B712" s="60"/>
-      <c r="C712" s="60"/>
-      <c r="D712" s="60"/>
-      <c r="E712" s="60"/>
-      <c r="F712" s="60"/>
-      <c r="G712" s="60"/>
-      <c r="H712" s="60"/>
-      <c r="I712" s="60"/>
-      <c r="J712" s="60"/>
-      <c r="K712" s="60"/>
-      <c r="L712" s="60"/>
-      <c r="M712" s="60"/>
-      <c r="N712" s="60"/>
-      <c r="O712" s="60"/>
-      <c r="P712" s="60"/>
-      <c r="Q712" s="60"/>
-      <c r="R712" s="60"/>
-      <c r="S712" s="60"/>
-      <c r="T712" s="60"/>
-      <c r="U712" s="60"/>
-      <c r="V712" s="60"/>
-      <c r="W712" s="60"/>
-      <c r="X712" s="60"/>
-      <c r="Y712" s="60"/>
-      <c r="Z712" s="60"/>
-      <c r="AA712" s="60"/>
-      <c r="AB712" s="60"/>
-      <c r="AC712" s="60"/>
-      <c r="AD712" s="60"/>
-      <c r="AE712" s="60"/>
-      <c r="AF712" s="60"/>
-      <c r="AG712" s="60"/>
-      <c r="AH712" s="60"/>
+      <c r="B712" s="54"/>
+      <c r="C712" s="54"/>
+      <c r="D712" s="54"/>
+      <c r="E712" s="54"/>
+      <c r="F712" s="54"/>
+      <c r="G712" s="54"/>
+      <c r="H712" s="54"/>
+      <c r="I712" s="54"/>
+      <c r="J712" s="54"/>
+      <c r="K712" s="54"/>
+      <c r="L712" s="54"/>
+      <c r="M712" s="54"/>
+      <c r="N712" s="54"/>
+      <c r="O712" s="54"/>
+      <c r="P712" s="54"/>
+      <c r="Q712" s="54"/>
+      <c r="R712" s="54"/>
+      <c r="S712" s="54"/>
+      <c r="T712" s="54"/>
+      <c r="U712" s="54"/>
+      <c r="V712" s="54"/>
+      <c r="W712" s="54"/>
+      <c r="X712" s="54"/>
+      <c r="Y712" s="54"/>
+      <c r="Z712" s="54"/>
+      <c r="AA712" s="54"/>
+      <c r="AB712" s="54"/>
+      <c r="AC712" s="54"/>
+      <c r="AD712" s="54"/>
+      <c r="AE712" s="54"/>
+      <c r="AF712" s="54"/>
+      <c r="AG712" s="54"/>
+      <c r="AH712" s="54"/>
     </row>
     <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B887" s="60"/>
-      <c r="C887" s="60"/>
-      <c r="D887" s="60"/>
-      <c r="E887" s="60"/>
-      <c r="F887" s="60"/>
-      <c r="G887" s="60"/>
-      <c r="H887" s="60"/>
-      <c r="I887" s="60"/>
-      <c r="J887" s="60"/>
-      <c r="K887" s="60"/>
-      <c r="L887" s="60"/>
-      <c r="M887" s="60"/>
-      <c r="N887" s="60"/>
-      <c r="O887" s="60"/>
-      <c r="P887" s="60"/>
-      <c r="Q887" s="60"/>
-      <c r="R887" s="60"/>
-      <c r="S887" s="60"/>
-      <c r="T887" s="60"/>
-      <c r="U887" s="60"/>
-      <c r="V887" s="60"/>
-      <c r="W887" s="60"/>
-      <c r="X887" s="60"/>
-      <c r="Y887" s="60"/>
-      <c r="Z887" s="60"/>
-      <c r="AA887" s="60"/>
-      <c r="AB887" s="60"/>
-      <c r="AC887" s="60"/>
-      <c r="AD887" s="60"/>
-      <c r="AE887" s="60"/>
-      <c r="AF887" s="60"/>
-      <c r="AG887" s="60"/>
-      <c r="AH887" s="60"/>
+      <c r="B887" s="54"/>
+      <c r="C887" s="54"/>
+      <c r="D887" s="54"/>
+      <c r="E887" s="54"/>
+      <c r="F887" s="54"/>
+      <c r="G887" s="54"/>
+      <c r="H887" s="54"/>
+      <c r="I887" s="54"/>
+      <c r="J887" s="54"/>
+      <c r="K887" s="54"/>
+      <c r="L887" s="54"/>
+      <c r="M887" s="54"/>
+      <c r="N887" s="54"/>
+      <c r="O887" s="54"/>
+      <c r="P887" s="54"/>
+      <c r="Q887" s="54"/>
+      <c r="R887" s="54"/>
+      <c r="S887" s="54"/>
+      <c r="T887" s="54"/>
+      <c r="U887" s="54"/>
+      <c r="V887" s="54"/>
+      <c r="W887" s="54"/>
+      <c r="X887" s="54"/>
+      <c r="Y887" s="54"/>
+      <c r="Z887" s="54"/>
+      <c r="AA887" s="54"/>
+      <c r="AB887" s="54"/>
+      <c r="AC887" s="54"/>
+      <c r="AD887" s="54"/>
+      <c r="AE887" s="54"/>
+      <c r="AF887" s="54"/>
+      <c r="AG887" s="54"/>
+      <c r="AH887" s="54"/>
     </row>
     <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1100" s="60"/>
-      <c r="C1100" s="60"/>
-      <c r="D1100" s="60"/>
-      <c r="E1100" s="60"/>
-      <c r="F1100" s="60"/>
-      <c r="G1100" s="60"/>
-      <c r="H1100" s="60"/>
-      <c r="I1100" s="60"/>
-      <c r="J1100" s="60"/>
-      <c r="K1100" s="60"/>
-      <c r="L1100" s="60"/>
-      <c r="M1100" s="60"/>
-      <c r="N1100" s="60"/>
-      <c r="O1100" s="60"/>
-      <c r="P1100" s="60"/>
-      <c r="Q1100" s="60"/>
-      <c r="R1100" s="60"/>
-      <c r="S1100" s="60"/>
-      <c r="T1100" s="60"/>
-      <c r="U1100" s="60"/>
-      <c r="V1100" s="60"/>
-      <c r="W1100" s="60"/>
-      <c r="X1100" s="60"/>
-      <c r="Y1100" s="60"/>
-      <c r="Z1100" s="60"/>
-      <c r="AA1100" s="60"/>
-      <c r="AB1100" s="60"/>
-      <c r="AC1100" s="60"/>
-      <c r="AD1100" s="60"/>
-      <c r="AE1100" s="60"/>
-      <c r="AF1100" s="60"/>
-      <c r="AG1100" s="60"/>
-      <c r="AH1100" s="60"/>
+      <c r="B1100" s="54"/>
+      <c r="C1100" s="54"/>
+      <c r="D1100" s="54"/>
+      <c r="E1100" s="54"/>
+      <c r="F1100" s="54"/>
+      <c r="G1100" s="54"/>
+      <c r="H1100" s="54"/>
+      <c r="I1100" s="54"/>
+      <c r="J1100" s="54"/>
+      <c r="K1100" s="54"/>
+      <c r="L1100" s="54"/>
+      <c r="M1100" s="54"/>
+      <c r="N1100" s="54"/>
+      <c r="O1100" s="54"/>
+      <c r="P1100" s="54"/>
+      <c r="Q1100" s="54"/>
+      <c r="R1100" s="54"/>
+      <c r="S1100" s="54"/>
+      <c r="T1100" s="54"/>
+      <c r="U1100" s="54"/>
+      <c r="V1100" s="54"/>
+      <c r="W1100" s="54"/>
+      <c r="X1100" s="54"/>
+      <c r="Y1100" s="54"/>
+      <c r="Z1100" s="54"/>
+      <c r="AA1100" s="54"/>
+      <c r="AB1100" s="54"/>
+      <c r="AC1100" s="54"/>
+      <c r="AD1100" s="54"/>
+      <c r="AE1100" s="54"/>
+      <c r="AF1100" s="54"/>
+      <c r="AG1100" s="54"/>
+      <c r="AH1100" s="54"/>
     </row>
     <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1227" s="60"/>
-      <c r="C1227" s="60"/>
-      <c r="D1227" s="60"/>
-      <c r="E1227" s="60"/>
-      <c r="F1227" s="60"/>
-      <c r="G1227" s="60"/>
-      <c r="H1227" s="60"/>
-      <c r="I1227" s="60"/>
-      <c r="J1227" s="60"/>
-      <c r="K1227" s="60"/>
-      <c r="L1227" s="60"/>
-      <c r="M1227" s="60"/>
-      <c r="N1227" s="60"/>
-      <c r="O1227" s="60"/>
-      <c r="P1227" s="60"/>
-      <c r="Q1227" s="60"/>
-      <c r="R1227" s="60"/>
-      <c r="S1227" s="60"/>
-      <c r="T1227" s="60"/>
-      <c r="U1227" s="60"/>
-      <c r="V1227" s="60"/>
-      <c r="W1227" s="60"/>
-      <c r="X1227" s="60"/>
-      <c r="Y1227" s="60"/>
-      <c r="Z1227" s="60"/>
-      <c r="AA1227" s="60"/>
-      <c r="AB1227" s="60"/>
-      <c r="AC1227" s="60"/>
-      <c r="AD1227" s="60"/>
-      <c r="AE1227" s="60"/>
-      <c r="AF1227" s="60"/>
-      <c r="AG1227" s="60"/>
-      <c r="AH1227" s="60"/>
+      <c r="B1227" s="54"/>
+      <c r="C1227" s="54"/>
+      <c r="D1227" s="54"/>
+      <c r="E1227" s="54"/>
+      <c r="F1227" s="54"/>
+      <c r="G1227" s="54"/>
+      <c r="H1227" s="54"/>
+      <c r="I1227" s="54"/>
+      <c r="J1227" s="54"/>
+      <c r="K1227" s="54"/>
+      <c r="L1227" s="54"/>
+      <c r="M1227" s="54"/>
+      <c r="N1227" s="54"/>
+      <c r="O1227" s="54"/>
+      <c r="P1227" s="54"/>
+      <c r="Q1227" s="54"/>
+      <c r="R1227" s="54"/>
+      <c r="S1227" s="54"/>
+      <c r="T1227" s="54"/>
+      <c r="U1227" s="54"/>
+      <c r="V1227" s="54"/>
+      <c r="W1227" s="54"/>
+      <c r="X1227" s="54"/>
+      <c r="Y1227" s="54"/>
+      <c r="Z1227" s="54"/>
+      <c r="AA1227" s="54"/>
+      <c r="AB1227" s="54"/>
+      <c r="AC1227" s="54"/>
+      <c r="AD1227" s="54"/>
+      <c r="AE1227" s="54"/>
+      <c r="AF1227" s="54"/>
+      <c r="AG1227" s="54"/>
+      <c r="AH1227" s="54"/>
     </row>
     <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1390" s="60"/>
-      <c r="C1390" s="60"/>
-      <c r="D1390" s="60"/>
-      <c r="E1390" s="60"/>
-      <c r="F1390" s="60"/>
-      <c r="G1390" s="60"/>
-      <c r="H1390" s="60"/>
-      <c r="I1390" s="60"/>
-      <c r="J1390" s="60"/>
-      <c r="K1390" s="60"/>
-      <c r="L1390" s="60"/>
-      <c r="M1390" s="60"/>
-      <c r="N1390" s="60"/>
-      <c r="O1390" s="60"/>
-      <c r="P1390" s="60"/>
-      <c r="Q1390" s="60"/>
-      <c r="R1390" s="60"/>
-      <c r="S1390" s="60"/>
-      <c r="T1390" s="60"/>
-      <c r="U1390" s="60"/>
-      <c r="V1390" s="60"/>
-      <c r="W1390" s="60"/>
-      <c r="X1390" s="60"/>
-      <c r="Y1390" s="60"/>
-      <c r="Z1390" s="60"/>
-      <c r="AA1390" s="60"/>
-      <c r="AB1390" s="60"/>
-      <c r="AC1390" s="60"/>
-      <c r="AD1390" s="60"/>
-      <c r="AE1390" s="60"/>
-      <c r="AF1390" s="60"/>
-      <c r="AG1390" s="60"/>
-      <c r="AH1390" s="60"/>
+      <c r="B1390" s="54"/>
+      <c r="C1390" s="54"/>
+      <c r="D1390" s="54"/>
+      <c r="E1390" s="54"/>
+      <c r="F1390" s="54"/>
+      <c r="G1390" s="54"/>
+      <c r="H1390" s="54"/>
+      <c r="I1390" s="54"/>
+      <c r="J1390" s="54"/>
+      <c r="K1390" s="54"/>
+      <c r="L1390" s="54"/>
+      <c r="M1390" s="54"/>
+      <c r="N1390" s="54"/>
+      <c r="O1390" s="54"/>
+      <c r="P1390" s="54"/>
+      <c r="Q1390" s="54"/>
+      <c r="R1390" s="54"/>
+      <c r="S1390" s="54"/>
+      <c r="T1390" s="54"/>
+      <c r="U1390" s="54"/>
+      <c r="V1390" s="54"/>
+      <c r="W1390" s="54"/>
+      <c r="X1390" s="54"/>
+      <c r="Y1390" s="54"/>
+      <c r="Z1390" s="54"/>
+      <c r="AA1390" s="54"/>
+      <c r="AB1390" s="54"/>
+      <c r="AC1390" s="54"/>
+      <c r="AD1390" s="54"/>
+      <c r="AE1390" s="54"/>
+      <c r="AF1390" s="54"/>
+      <c r="AG1390" s="54"/>
+      <c r="AH1390" s="54"/>
     </row>
     <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1502" s="60"/>
-      <c r="C1502" s="60"/>
-      <c r="D1502" s="60"/>
-      <c r="E1502" s="60"/>
-      <c r="F1502" s="60"/>
-      <c r="G1502" s="60"/>
-      <c r="H1502" s="60"/>
-      <c r="I1502" s="60"/>
-      <c r="J1502" s="60"/>
-      <c r="K1502" s="60"/>
-      <c r="L1502" s="60"/>
-      <c r="M1502" s="60"/>
-      <c r="N1502" s="60"/>
-      <c r="O1502" s="60"/>
-      <c r="P1502" s="60"/>
-      <c r="Q1502" s="60"/>
-      <c r="R1502" s="60"/>
-      <c r="S1502" s="60"/>
-      <c r="T1502" s="60"/>
-      <c r="U1502" s="60"/>
-      <c r="V1502" s="60"/>
-      <c r="W1502" s="60"/>
-      <c r="X1502" s="60"/>
-      <c r="Y1502" s="60"/>
-      <c r="Z1502" s="60"/>
-      <c r="AA1502" s="60"/>
-      <c r="AB1502" s="60"/>
-      <c r="AC1502" s="60"/>
-      <c r="AD1502" s="60"/>
-      <c r="AE1502" s="60"/>
-      <c r="AF1502" s="60"/>
-      <c r="AG1502" s="60"/>
-      <c r="AH1502" s="60"/>
+      <c r="B1502" s="54"/>
+      <c r="C1502" s="54"/>
+      <c r="D1502" s="54"/>
+      <c r="E1502" s="54"/>
+      <c r="F1502" s="54"/>
+      <c r="G1502" s="54"/>
+      <c r="H1502" s="54"/>
+      <c r="I1502" s="54"/>
+      <c r="J1502" s="54"/>
+      <c r="K1502" s="54"/>
+      <c r="L1502" s="54"/>
+      <c r="M1502" s="54"/>
+      <c r="N1502" s="54"/>
+      <c r="O1502" s="54"/>
+      <c r="P1502" s="54"/>
+      <c r="Q1502" s="54"/>
+      <c r="R1502" s="54"/>
+      <c r="S1502" s="54"/>
+      <c r="T1502" s="54"/>
+      <c r="U1502" s="54"/>
+      <c r="V1502" s="54"/>
+      <c r="W1502" s="54"/>
+      <c r="X1502" s="54"/>
+      <c r="Y1502" s="54"/>
+      <c r="Z1502" s="54"/>
+      <c r="AA1502" s="54"/>
+      <c r="AB1502" s="54"/>
+      <c r="AC1502" s="54"/>
+      <c r="AD1502" s="54"/>
+      <c r="AE1502" s="54"/>
+      <c r="AF1502" s="54"/>
+      <c r="AG1502" s="54"/>
+      <c r="AH1502" s="54"/>
     </row>
     <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1604" s="60"/>
-      <c r="C1604" s="60"/>
-      <c r="D1604" s="60"/>
-      <c r="E1604" s="60"/>
-      <c r="F1604" s="60"/>
-      <c r="G1604" s="60"/>
-      <c r="H1604" s="60"/>
-      <c r="I1604" s="60"/>
-      <c r="J1604" s="60"/>
-      <c r="K1604" s="60"/>
-      <c r="L1604" s="60"/>
-      <c r="M1604" s="60"/>
-      <c r="N1604" s="60"/>
-      <c r="O1604" s="60"/>
-      <c r="P1604" s="60"/>
-      <c r="Q1604" s="60"/>
-      <c r="R1604" s="60"/>
-      <c r="S1604" s="60"/>
-      <c r="T1604" s="60"/>
-      <c r="U1604" s="60"/>
-      <c r="V1604" s="60"/>
-      <c r="W1604" s="60"/>
-      <c r="X1604" s="60"/>
-      <c r="Y1604" s="60"/>
-      <c r="Z1604" s="60"/>
-      <c r="AA1604" s="60"/>
-      <c r="AB1604" s="60"/>
-      <c r="AC1604" s="60"/>
-      <c r="AD1604" s="60"/>
-      <c r="AE1604" s="60"/>
-      <c r="AF1604" s="60"/>
-      <c r="AG1604" s="60"/>
-      <c r="AH1604" s="60"/>
+      <c r="B1604" s="54"/>
+      <c r="C1604" s="54"/>
+      <c r="D1604" s="54"/>
+      <c r="E1604" s="54"/>
+      <c r="F1604" s="54"/>
+      <c r="G1604" s="54"/>
+      <c r="H1604" s="54"/>
+      <c r="I1604" s="54"/>
+      <c r="J1604" s="54"/>
+      <c r="K1604" s="54"/>
+      <c r="L1604" s="54"/>
+      <c r="M1604" s="54"/>
+      <c r="N1604" s="54"/>
+      <c r="O1604" s="54"/>
+      <c r="P1604" s="54"/>
+      <c r="Q1604" s="54"/>
+      <c r="R1604" s="54"/>
+      <c r="S1604" s="54"/>
+      <c r="T1604" s="54"/>
+      <c r="U1604" s="54"/>
+      <c r="V1604" s="54"/>
+      <c r="W1604" s="54"/>
+      <c r="X1604" s="54"/>
+      <c r="Y1604" s="54"/>
+      <c r="Z1604" s="54"/>
+      <c r="AA1604" s="54"/>
+      <c r="AB1604" s="54"/>
+      <c r="AC1604" s="54"/>
+      <c r="AD1604" s="54"/>
+      <c r="AE1604" s="54"/>
+      <c r="AF1604" s="54"/>
+      <c r="AG1604" s="54"/>
+      <c r="AH1604" s="54"/>
     </row>
     <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1698" s="60"/>
-      <c r="C1698" s="60"/>
-      <c r="D1698" s="60"/>
-      <c r="E1698" s="60"/>
-      <c r="F1698" s="60"/>
-      <c r="G1698" s="60"/>
-      <c r="H1698" s="60"/>
-      <c r="I1698" s="60"/>
-      <c r="J1698" s="60"/>
-      <c r="K1698" s="60"/>
-      <c r="L1698" s="60"/>
-      <c r="M1698" s="60"/>
-      <c r="N1698" s="60"/>
-      <c r="O1698" s="60"/>
-      <c r="P1698" s="60"/>
-      <c r="Q1698" s="60"/>
-      <c r="R1698" s="60"/>
-      <c r="S1698" s="60"/>
-      <c r="T1698" s="60"/>
-      <c r="U1698" s="60"/>
-      <c r="V1698" s="60"/>
-      <c r="W1698" s="60"/>
-      <c r="X1698" s="60"/>
-      <c r="Y1698" s="60"/>
-      <c r="Z1698" s="60"/>
-      <c r="AA1698" s="60"/>
-      <c r="AB1698" s="60"/>
-      <c r="AC1698" s="60"/>
-      <c r="AD1698" s="60"/>
-      <c r="AE1698" s="60"/>
-      <c r="AF1698" s="60"/>
-      <c r="AG1698" s="60"/>
-      <c r="AH1698" s="60"/>
+      <c r="B1698" s="54"/>
+      <c r="C1698" s="54"/>
+      <c r="D1698" s="54"/>
+      <c r="E1698" s="54"/>
+      <c r="F1698" s="54"/>
+      <c r="G1698" s="54"/>
+      <c r="H1698" s="54"/>
+      <c r="I1698" s="54"/>
+      <c r="J1698" s="54"/>
+      <c r="K1698" s="54"/>
+      <c r="L1698" s="54"/>
+      <c r="M1698" s="54"/>
+      <c r="N1698" s="54"/>
+      <c r="O1698" s="54"/>
+      <c r="P1698" s="54"/>
+      <c r="Q1698" s="54"/>
+      <c r="R1698" s="54"/>
+      <c r="S1698" s="54"/>
+      <c r="T1698" s="54"/>
+      <c r="U1698" s="54"/>
+      <c r="V1698" s="54"/>
+      <c r="W1698" s="54"/>
+      <c r="X1698" s="54"/>
+      <c r="Y1698" s="54"/>
+      <c r="Z1698" s="54"/>
+      <c r="AA1698" s="54"/>
+      <c r="AB1698" s="54"/>
+      <c r="AC1698" s="54"/>
+      <c r="AD1698" s="54"/>
+      <c r="AE1698" s="54"/>
+      <c r="AF1698" s="54"/>
+      <c r="AG1698" s="54"/>
+      <c r="AH1698" s="54"/>
     </row>
     <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1945" s="60"/>
-      <c r="C1945" s="60"/>
-      <c r="D1945" s="60"/>
-      <c r="E1945" s="60"/>
-      <c r="F1945" s="60"/>
-      <c r="G1945" s="60"/>
-      <c r="H1945" s="60"/>
-      <c r="I1945" s="60"/>
-      <c r="J1945" s="60"/>
-      <c r="K1945" s="60"/>
-      <c r="L1945" s="60"/>
-      <c r="M1945" s="60"/>
-      <c r="N1945" s="60"/>
-      <c r="O1945" s="60"/>
-      <c r="P1945" s="60"/>
-      <c r="Q1945" s="60"/>
-      <c r="R1945" s="60"/>
-      <c r="S1945" s="60"/>
-      <c r="T1945" s="60"/>
-      <c r="U1945" s="60"/>
-      <c r="V1945" s="60"/>
-      <c r="W1945" s="60"/>
-      <c r="X1945" s="60"/>
-      <c r="Y1945" s="60"/>
-      <c r="Z1945" s="60"/>
-      <c r="AA1945" s="60"/>
-      <c r="AB1945" s="60"/>
-      <c r="AC1945" s="60"/>
-      <c r="AD1945" s="60"/>
-      <c r="AE1945" s="60"/>
-      <c r="AF1945" s="60"/>
-      <c r="AG1945" s="60"/>
-      <c r="AH1945" s="60"/>
+      <c r="B1945" s="54"/>
+      <c r="C1945" s="54"/>
+      <c r="D1945" s="54"/>
+      <c r="E1945" s="54"/>
+      <c r="F1945" s="54"/>
+      <c r="G1945" s="54"/>
+      <c r="H1945" s="54"/>
+      <c r="I1945" s="54"/>
+      <c r="J1945" s="54"/>
+      <c r="K1945" s="54"/>
+      <c r="L1945" s="54"/>
+      <c r="M1945" s="54"/>
+      <c r="N1945" s="54"/>
+      <c r="O1945" s="54"/>
+      <c r="P1945" s="54"/>
+      <c r="Q1945" s="54"/>
+      <c r="R1945" s="54"/>
+      <c r="S1945" s="54"/>
+      <c r="T1945" s="54"/>
+      <c r="U1945" s="54"/>
+      <c r="V1945" s="54"/>
+      <c r="W1945" s="54"/>
+      <c r="X1945" s="54"/>
+      <c r="Y1945" s="54"/>
+      <c r="Z1945" s="54"/>
+      <c r="AA1945" s="54"/>
+      <c r="AB1945" s="54"/>
+      <c r="AC1945" s="54"/>
+      <c r="AD1945" s="54"/>
+      <c r="AE1945" s="54"/>
+      <c r="AF1945" s="54"/>
+      <c r="AG1945" s="54"/>
+      <c r="AH1945" s="54"/>
     </row>
     <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2031" s="60"/>
-      <c r="C2031" s="60"/>
-      <c r="D2031" s="60"/>
-      <c r="E2031" s="60"/>
-      <c r="F2031" s="60"/>
-      <c r="G2031" s="60"/>
-      <c r="H2031" s="60"/>
-      <c r="I2031" s="60"/>
-      <c r="J2031" s="60"/>
-      <c r="K2031" s="60"/>
-      <c r="L2031" s="60"/>
-      <c r="M2031" s="60"/>
-      <c r="N2031" s="60"/>
-      <c r="O2031" s="60"/>
-      <c r="P2031" s="60"/>
-      <c r="Q2031" s="60"/>
-      <c r="R2031" s="60"/>
-      <c r="S2031" s="60"/>
-      <c r="T2031" s="60"/>
-      <c r="U2031" s="60"/>
-      <c r="V2031" s="60"/>
-      <c r="W2031" s="60"/>
-      <c r="X2031" s="60"/>
-      <c r="Y2031" s="60"/>
-      <c r="Z2031" s="60"/>
-      <c r="AA2031" s="60"/>
-      <c r="AB2031" s="60"/>
-      <c r="AC2031" s="60"/>
-      <c r="AD2031" s="60"/>
-      <c r="AE2031" s="60"/>
-      <c r="AF2031" s="60"/>
-      <c r="AG2031" s="60"/>
-      <c r="AH2031" s="60"/>
+      <c r="B2031" s="54"/>
+      <c r="C2031" s="54"/>
+      <c r="D2031" s="54"/>
+      <c r="E2031" s="54"/>
+      <c r="F2031" s="54"/>
+      <c r="G2031" s="54"/>
+      <c r="H2031" s="54"/>
+      <c r="I2031" s="54"/>
+      <c r="J2031" s="54"/>
+      <c r="K2031" s="54"/>
+      <c r="L2031" s="54"/>
+      <c r="M2031" s="54"/>
+      <c r="N2031" s="54"/>
+      <c r="O2031" s="54"/>
+      <c r="P2031" s="54"/>
+      <c r="Q2031" s="54"/>
+      <c r="R2031" s="54"/>
+      <c r="S2031" s="54"/>
+      <c r="T2031" s="54"/>
+      <c r="U2031" s="54"/>
+      <c r="V2031" s="54"/>
+      <c r="W2031" s="54"/>
+      <c r="X2031" s="54"/>
+      <c r="Y2031" s="54"/>
+      <c r="Z2031" s="54"/>
+      <c r="AA2031" s="54"/>
+      <c r="AB2031" s="54"/>
+      <c r="AC2031" s="54"/>
+      <c r="AD2031" s="54"/>
+      <c r="AE2031" s="54"/>
+      <c r="AF2031" s="54"/>
+      <c r="AG2031" s="54"/>
+      <c r="AH2031" s="54"/>
     </row>
     <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2153" s="60"/>
-      <c r="C2153" s="60"/>
-      <c r="D2153" s="60"/>
-      <c r="E2153" s="60"/>
-      <c r="F2153" s="60"/>
-      <c r="G2153" s="60"/>
-      <c r="H2153" s="60"/>
-      <c r="I2153" s="60"/>
-      <c r="J2153" s="60"/>
-      <c r="K2153" s="60"/>
-      <c r="L2153" s="60"/>
-      <c r="M2153" s="60"/>
-      <c r="N2153" s="60"/>
-      <c r="O2153" s="60"/>
-      <c r="P2153" s="60"/>
-      <c r="Q2153" s="60"/>
-      <c r="R2153" s="60"/>
-      <c r="S2153" s="60"/>
-      <c r="T2153" s="60"/>
-      <c r="U2153" s="60"/>
-      <c r="V2153" s="60"/>
-      <c r="W2153" s="60"/>
-      <c r="X2153" s="60"/>
-      <c r="Y2153" s="60"/>
-      <c r="Z2153" s="60"/>
-      <c r="AA2153" s="60"/>
-      <c r="AB2153" s="60"/>
-      <c r="AC2153" s="60"/>
-      <c r="AD2153" s="60"/>
-      <c r="AE2153" s="60"/>
-      <c r="AF2153" s="60"/>
-      <c r="AG2153" s="60"/>
-      <c r="AH2153" s="60"/>
+      <c r="B2153" s="54"/>
+      <c r="C2153" s="54"/>
+      <c r="D2153" s="54"/>
+      <c r="E2153" s="54"/>
+      <c r="F2153" s="54"/>
+      <c r="G2153" s="54"/>
+      <c r="H2153" s="54"/>
+      <c r="I2153" s="54"/>
+      <c r="J2153" s="54"/>
+      <c r="K2153" s="54"/>
+      <c r="L2153" s="54"/>
+      <c r="M2153" s="54"/>
+      <c r="N2153" s="54"/>
+      <c r="O2153" s="54"/>
+      <c r="P2153" s="54"/>
+      <c r="Q2153" s="54"/>
+      <c r="R2153" s="54"/>
+      <c r="S2153" s="54"/>
+      <c r="T2153" s="54"/>
+      <c r="U2153" s="54"/>
+      <c r="V2153" s="54"/>
+      <c r="W2153" s="54"/>
+      <c r="X2153" s="54"/>
+      <c r="Y2153" s="54"/>
+      <c r="Z2153" s="54"/>
+      <c r="AA2153" s="54"/>
+      <c r="AB2153" s="54"/>
+      <c r="AC2153" s="54"/>
+      <c r="AD2153" s="54"/>
+      <c r="AE2153" s="54"/>
+      <c r="AF2153" s="54"/>
+      <c r="AG2153" s="54"/>
+      <c r="AH2153" s="54"/>
     </row>
     <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2317" s="60"/>
-      <c r="C2317" s="60"/>
-      <c r="D2317" s="60"/>
-      <c r="E2317" s="60"/>
-      <c r="F2317" s="60"/>
-      <c r="G2317" s="60"/>
-      <c r="H2317" s="60"/>
-      <c r="I2317" s="60"/>
-      <c r="J2317" s="60"/>
-      <c r="K2317" s="60"/>
-      <c r="L2317" s="60"/>
-      <c r="M2317" s="60"/>
-      <c r="N2317" s="60"/>
-      <c r="O2317" s="60"/>
-      <c r="P2317" s="60"/>
-      <c r="Q2317" s="60"/>
-      <c r="R2317" s="60"/>
-      <c r="S2317" s="60"/>
-      <c r="T2317" s="60"/>
-      <c r="U2317" s="60"/>
-      <c r="V2317" s="60"/>
-      <c r="W2317" s="60"/>
-      <c r="X2317" s="60"/>
-      <c r="Y2317" s="60"/>
-      <c r="Z2317" s="60"/>
-      <c r="AA2317" s="60"/>
-      <c r="AB2317" s="60"/>
-      <c r="AC2317" s="60"/>
-      <c r="AD2317" s="60"/>
-      <c r="AE2317" s="60"/>
-      <c r="AF2317" s="60"/>
-      <c r="AG2317" s="60"/>
-      <c r="AH2317" s="60"/>
+      <c r="B2317" s="54"/>
+      <c r="C2317" s="54"/>
+      <c r="D2317" s="54"/>
+      <c r="E2317" s="54"/>
+      <c r="F2317" s="54"/>
+      <c r="G2317" s="54"/>
+      <c r="H2317" s="54"/>
+      <c r="I2317" s="54"/>
+      <c r="J2317" s="54"/>
+      <c r="K2317" s="54"/>
+      <c r="L2317" s="54"/>
+      <c r="M2317" s="54"/>
+      <c r="N2317" s="54"/>
+      <c r="O2317" s="54"/>
+      <c r="P2317" s="54"/>
+      <c r="Q2317" s="54"/>
+      <c r="R2317" s="54"/>
+      <c r="S2317" s="54"/>
+      <c r="T2317" s="54"/>
+      <c r="U2317" s="54"/>
+      <c r="V2317" s="54"/>
+      <c r="W2317" s="54"/>
+      <c r="X2317" s="54"/>
+      <c r="Y2317" s="54"/>
+      <c r="Z2317" s="54"/>
+      <c r="AA2317" s="54"/>
+      <c r="AB2317" s="54"/>
+      <c r="AC2317" s="54"/>
+      <c r="AD2317" s="54"/>
+      <c r="AE2317" s="54"/>
+      <c r="AF2317" s="54"/>
+      <c r="AG2317" s="54"/>
+      <c r="AH2317" s="54"/>
     </row>
     <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2419" s="60"/>
-      <c r="C2419" s="60"/>
-      <c r="D2419" s="60"/>
-      <c r="E2419" s="60"/>
-      <c r="F2419" s="60"/>
-      <c r="G2419" s="60"/>
-      <c r="H2419" s="60"/>
-      <c r="I2419" s="60"/>
-      <c r="J2419" s="60"/>
-      <c r="K2419" s="60"/>
-      <c r="L2419" s="60"/>
-      <c r="M2419" s="60"/>
-      <c r="N2419" s="60"/>
-      <c r="O2419" s="60"/>
-      <c r="P2419" s="60"/>
-      <c r="Q2419" s="60"/>
-      <c r="R2419" s="60"/>
-      <c r="S2419" s="60"/>
-      <c r="T2419" s="60"/>
-      <c r="U2419" s="60"/>
-      <c r="V2419" s="60"/>
-      <c r="W2419" s="60"/>
-      <c r="X2419" s="60"/>
-      <c r="Y2419" s="60"/>
-      <c r="Z2419" s="60"/>
-      <c r="AA2419" s="60"/>
-      <c r="AB2419" s="60"/>
-      <c r="AC2419" s="60"/>
-      <c r="AD2419" s="60"/>
-      <c r="AE2419" s="60"/>
-      <c r="AF2419" s="60"/>
-      <c r="AG2419" s="60"/>
-      <c r="AH2419" s="60"/>
+      <c r="B2419" s="54"/>
+      <c r="C2419" s="54"/>
+      <c r="D2419" s="54"/>
+      <c r="E2419" s="54"/>
+      <c r="F2419" s="54"/>
+      <c r="G2419" s="54"/>
+      <c r="H2419" s="54"/>
+      <c r="I2419" s="54"/>
+      <c r="J2419" s="54"/>
+      <c r="K2419" s="54"/>
+      <c r="L2419" s="54"/>
+      <c r="M2419" s="54"/>
+      <c r="N2419" s="54"/>
+      <c r="O2419" s="54"/>
+      <c r="P2419" s="54"/>
+      <c r="Q2419" s="54"/>
+      <c r="R2419" s="54"/>
+      <c r="S2419" s="54"/>
+      <c r="T2419" s="54"/>
+      <c r="U2419" s="54"/>
+      <c r="V2419" s="54"/>
+      <c r="W2419" s="54"/>
+      <c r="X2419" s="54"/>
+      <c r="Y2419" s="54"/>
+      <c r="Z2419" s="54"/>
+      <c r="AA2419" s="54"/>
+      <c r="AB2419" s="54"/>
+      <c r="AC2419" s="54"/>
+      <c r="AD2419" s="54"/>
+      <c r="AE2419" s="54"/>
+      <c r="AF2419" s="54"/>
+      <c r="AG2419" s="54"/>
+      <c r="AH2419" s="54"/>
     </row>
     <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2509" s="60"/>
-      <c r="C2509" s="60"/>
-      <c r="D2509" s="60"/>
-      <c r="E2509" s="60"/>
-      <c r="F2509" s="60"/>
-      <c r="G2509" s="60"/>
-      <c r="H2509" s="60"/>
-      <c r="I2509" s="60"/>
-      <c r="J2509" s="60"/>
-      <c r="K2509" s="60"/>
-      <c r="L2509" s="60"/>
-      <c r="M2509" s="60"/>
-      <c r="N2509" s="60"/>
-      <c r="O2509" s="60"/>
-      <c r="P2509" s="60"/>
-      <c r="Q2509" s="60"/>
-      <c r="R2509" s="60"/>
-      <c r="S2509" s="60"/>
-      <c r="T2509" s="60"/>
-      <c r="U2509" s="60"/>
-      <c r="V2509" s="60"/>
-      <c r="W2509" s="60"/>
-      <c r="X2509" s="60"/>
-      <c r="Y2509" s="60"/>
-      <c r="Z2509" s="60"/>
-      <c r="AA2509" s="60"/>
-      <c r="AB2509" s="60"/>
-      <c r="AC2509" s="60"/>
-      <c r="AD2509" s="60"/>
-      <c r="AE2509" s="60"/>
-      <c r="AF2509" s="60"/>
-      <c r="AG2509" s="60"/>
-      <c r="AH2509" s="60"/>
+      <c r="B2509" s="54"/>
+      <c r="C2509" s="54"/>
+      <c r="D2509" s="54"/>
+      <c r="E2509" s="54"/>
+      <c r="F2509" s="54"/>
+      <c r="G2509" s="54"/>
+      <c r="H2509" s="54"/>
+      <c r="I2509" s="54"/>
+      <c r="J2509" s="54"/>
+      <c r="K2509" s="54"/>
+      <c r="L2509" s="54"/>
+      <c r="M2509" s="54"/>
+      <c r="N2509" s="54"/>
+      <c r="O2509" s="54"/>
+      <c r="P2509" s="54"/>
+      <c r="Q2509" s="54"/>
+      <c r="R2509" s="54"/>
+      <c r="S2509" s="54"/>
+      <c r="T2509" s="54"/>
+      <c r="U2509" s="54"/>
+      <c r="V2509" s="54"/>
+      <c r="W2509" s="54"/>
+      <c r="X2509" s="54"/>
+      <c r="Y2509" s="54"/>
+      <c r="Z2509" s="54"/>
+      <c r="AA2509" s="54"/>
+      <c r="AB2509" s="54"/>
+      <c r="AC2509" s="54"/>
+      <c r="AD2509" s="54"/>
+      <c r="AE2509" s="54"/>
+      <c r="AF2509" s="54"/>
+      <c r="AG2509" s="54"/>
+      <c r="AH2509" s="54"/>
     </row>
     <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2598" s="60"/>
-      <c r="C2598" s="60"/>
-      <c r="D2598" s="60"/>
-      <c r="E2598" s="60"/>
-      <c r="F2598" s="60"/>
-      <c r="G2598" s="60"/>
-      <c r="H2598" s="60"/>
-      <c r="I2598" s="60"/>
-      <c r="J2598" s="60"/>
-      <c r="K2598" s="60"/>
-      <c r="L2598" s="60"/>
-      <c r="M2598" s="60"/>
-      <c r="N2598" s="60"/>
-      <c r="O2598" s="60"/>
-      <c r="P2598" s="60"/>
-      <c r="Q2598" s="60"/>
-      <c r="R2598" s="60"/>
-      <c r="S2598" s="60"/>
-      <c r="T2598" s="60"/>
-      <c r="U2598" s="60"/>
-      <c r="V2598" s="60"/>
-      <c r="W2598" s="60"/>
-      <c r="X2598" s="60"/>
-      <c r="Y2598" s="60"/>
-      <c r="Z2598" s="60"/>
-      <c r="AA2598" s="60"/>
-      <c r="AB2598" s="60"/>
-      <c r="AC2598" s="60"/>
-      <c r="AD2598" s="60"/>
-      <c r="AE2598" s="60"/>
-      <c r="AF2598" s="60"/>
-      <c r="AG2598" s="60"/>
-      <c r="AH2598" s="60"/>
+      <c r="B2598" s="54"/>
+      <c r="C2598" s="54"/>
+      <c r="D2598" s="54"/>
+      <c r="E2598" s="54"/>
+      <c r="F2598" s="54"/>
+      <c r="G2598" s="54"/>
+      <c r="H2598" s="54"/>
+      <c r="I2598" s="54"/>
+      <c r="J2598" s="54"/>
+      <c r="K2598" s="54"/>
+      <c r="L2598" s="54"/>
+      <c r="M2598" s="54"/>
+      <c r="N2598" s="54"/>
+      <c r="O2598" s="54"/>
+      <c r="P2598" s="54"/>
+      <c r="Q2598" s="54"/>
+      <c r="R2598" s="54"/>
+      <c r="S2598" s="54"/>
+      <c r="T2598" s="54"/>
+      <c r="U2598" s="54"/>
+      <c r="V2598" s="54"/>
+      <c r="W2598" s="54"/>
+      <c r="X2598" s="54"/>
+      <c r="Y2598" s="54"/>
+      <c r="Z2598" s="54"/>
+      <c r="AA2598" s="54"/>
+      <c r="AB2598" s="54"/>
+      <c r="AC2598" s="54"/>
+      <c r="AD2598" s="54"/>
+      <c r="AE2598" s="54"/>
+      <c r="AF2598" s="54"/>
+      <c r="AG2598" s="54"/>
+      <c r="AH2598" s="54"/>
     </row>
     <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2719" s="60"/>
-      <c r="C2719" s="60"/>
-      <c r="D2719" s="60"/>
-      <c r="E2719" s="60"/>
-      <c r="F2719" s="60"/>
-      <c r="G2719" s="60"/>
-      <c r="H2719" s="60"/>
-      <c r="I2719" s="60"/>
-      <c r="J2719" s="60"/>
-      <c r="K2719" s="60"/>
-      <c r="L2719" s="60"/>
-      <c r="M2719" s="60"/>
-      <c r="N2719" s="60"/>
-      <c r="O2719" s="60"/>
-      <c r="P2719" s="60"/>
-      <c r="Q2719" s="60"/>
-      <c r="R2719" s="60"/>
-      <c r="S2719" s="60"/>
-      <c r="T2719" s="60"/>
-      <c r="U2719" s="60"/>
-      <c r="V2719" s="60"/>
-      <c r="W2719" s="60"/>
-      <c r="X2719" s="60"/>
-      <c r="Y2719" s="60"/>
-      <c r="Z2719" s="60"/>
-      <c r="AA2719" s="60"/>
-      <c r="AB2719" s="60"/>
-      <c r="AC2719" s="60"/>
-      <c r="AD2719" s="60"/>
-      <c r="AE2719" s="60"/>
-      <c r="AF2719" s="60"/>
-      <c r="AG2719" s="60"/>
-      <c r="AH2719" s="60"/>
+      <c r="B2719" s="54"/>
+      <c r="C2719" s="54"/>
+      <c r="D2719" s="54"/>
+      <c r="E2719" s="54"/>
+      <c r="F2719" s="54"/>
+      <c r="G2719" s="54"/>
+      <c r="H2719" s="54"/>
+      <c r="I2719" s="54"/>
+      <c r="J2719" s="54"/>
+      <c r="K2719" s="54"/>
+      <c r="L2719" s="54"/>
+      <c r="M2719" s="54"/>
+      <c r="N2719" s="54"/>
+      <c r="O2719" s="54"/>
+      <c r="P2719" s="54"/>
+      <c r="Q2719" s="54"/>
+      <c r="R2719" s="54"/>
+      <c r="S2719" s="54"/>
+      <c r="T2719" s="54"/>
+      <c r="U2719" s="54"/>
+      <c r="V2719" s="54"/>
+      <c r="W2719" s="54"/>
+      <c r="X2719" s="54"/>
+      <c r="Y2719" s="54"/>
+      <c r="Z2719" s="54"/>
+      <c r="AA2719" s="54"/>
+      <c r="AB2719" s="54"/>
+      <c r="AC2719" s="54"/>
+      <c r="AD2719" s="54"/>
+      <c r="AE2719" s="54"/>
+      <c r="AF2719" s="54"/>
+      <c r="AG2719" s="54"/>
+      <c r="AH2719" s="54"/>
     </row>
     <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2837" s="60"/>
-      <c r="C2837" s="60"/>
-      <c r="D2837" s="60"/>
-      <c r="E2837" s="60"/>
-      <c r="F2837" s="60"/>
-      <c r="G2837" s="60"/>
-      <c r="H2837" s="60"/>
-      <c r="I2837" s="60"/>
-      <c r="J2837" s="60"/>
-      <c r="K2837" s="60"/>
-      <c r="L2837" s="60"/>
-      <c r="M2837" s="60"/>
-      <c r="N2837" s="60"/>
-      <c r="O2837" s="60"/>
-      <c r="P2837" s="60"/>
-      <c r="Q2837" s="60"/>
-      <c r="R2837" s="60"/>
-      <c r="S2837" s="60"/>
-      <c r="T2837" s="60"/>
-      <c r="U2837" s="60"/>
-      <c r="V2837" s="60"/>
-      <c r="W2837" s="60"/>
-      <c r="X2837" s="60"/>
-      <c r="Y2837" s="60"/>
-      <c r="Z2837" s="60"/>
-      <c r="AA2837" s="60"/>
-      <c r="AB2837" s="60"/>
-      <c r="AC2837" s="60"/>
-      <c r="AD2837" s="60"/>
-      <c r="AE2837" s="60"/>
-      <c r="AF2837" s="60"/>
-      <c r="AG2837" s="60"/>
-      <c r="AH2837" s="60"/>
+      <c r="B2837" s="54"/>
+      <c r="C2837" s="54"/>
+      <c r="D2837" s="54"/>
+      <c r="E2837" s="54"/>
+      <c r="F2837" s="54"/>
+      <c r="G2837" s="54"/>
+      <c r="H2837" s="54"/>
+      <c r="I2837" s="54"/>
+      <c r="J2837" s="54"/>
+      <c r="K2837" s="54"/>
+      <c r="L2837" s="54"/>
+      <c r="M2837" s="54"/>
+      <c r="N2837" s="54"/>
+      <c r="O2837" s="54"/>
+      <c r="P2837" s="54"/>
+      <c r="Q2837" s="54"/>
+      <c r="R2837" s="54"/>
+      <c r="S2837" s="54"/>
+      <c r="T2837" s="54"/>
+      <c r="U2837" s="54"/>
+      <c r="V2837" s="54"/>
+      <c r="W2837" s="54"/>
+      <c r="X2837" s="54"/>
+      <c r="Y2837" s="54"/>
+      <c r="Z2837" s="54"/>
+      <c r="AA2837" s="54"/>
+      <c r="AB2837" s="54"/>
+      <c r="AC2837" s="54"/>
+      <c r="AD2837" s="54"/>
+      <c r="AE2837" s="54"/>
+      <c r="AF2837" s="54"/>
+      <c r="AG2837" s="54"/>
+      <c r="AH2837" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B147:AG147"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2153:AH2153"/>
     <mergeCell ref="B2317:AH2317"/>
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B2598:AH2598"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2719:AH2719"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B1100:AH1100"/>
-    <mergeCell ref="B1227:AH1227"/>
-    <mergeCell ref="B1390:AH1390"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B147:AG147"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -21934,103 +21934,103 @@
       <c r="A112" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B112" s="61" t="s">
+      <c r="B112" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="C112" s="62">
+      <c r="C112" s="61">
         <v>840</v>
       </c>
-      <c r="D112" s="62">
+      <c r="D112" s="61">
         <v>706</v>
       </c>
-      <c r="E112" s="62">
+      <c r="E112" s="61">
         <v>826</v>
       </c>
-      <c r="F112" s="62">
+      <c r="F112" s="61">
         <v>834</v>
       </c>
-      <c r="G112" s="62">
+      <c r="G112" s="61">
         <v>842</v>
       </c>
-      <c r="H112" s="62">
+      <c r="H112" s="61">
         <v>850</v>
       </c>
-      <c r="I112" s="62">
+      <c r="I112" s="61">
         <v>858</v>
       </c>
-      <c r="J112" s="62">
+      <c r="J112" s="61">
         <v>867</v>
       </c>
-      <c r="K112" s="62">
+      <c r="K112" s="61">
         <v>875</v>
       </c>
-      <c r="L112" s="62">
+      <c r="L112" s="61">
         <v>883</v>
       </c>
-      <c r="M112" s="62">
+      <c r="M112" s="61">
         <v>891</v>
       </c>
-      <c r="N112" s="62">
+      <c r="N112" s="61">
         <v>899</v>
       </c>
-      <c r="O112" s="62">
+      <c r="O112" s="61">
         <v>907</v>
       </c>
-      <c r="P112" s="62">
+      <c r="P112" s="61">
         <v>916</v>
       </c>
-      <c r="Q112" s="62">
+      <c r="Q112" s="61">
         <v>924</v>
       </c>
-      <c r="R112" s="62">
+      <c r="R112" s="61">
         <v>932</v>
       </c>
-      <c r="S112" s="62">
+      <c r="S112" s="61">
         <v>940</v>
       </c>
-      <c r="T112" s="62">
+      <c r="T112" s="61">
         <v>948</v>
       </c>
-      <c r="U112" s="62">
+      <c r="U112" s="61">
         <v>956</v>
       </c>
-      <c r="V112" s="62">
+      <c r="V112" s="61">
         <v>965</v>
       </c>
-      <c r="W112" s="62">
+      <c r="W112" s="61">
         <v>973</v>
       </c>
-      <c r="X112" s="62">
+      <c r="X112" s="61">
         <v>981</v>
       </c>
-      <c r="Y112" s="62">
+      <c r="Y112" s="61">
         <v>989</v>
       </c>
-      <c r="Z112" s="62">
+      <c r="Z112" s="61">
         <v>997</v>
       </c>
-      <c r="AA112" s="62">
+      <c r="AA112" s="61">
         <v>1005</v>
       </c>
-      <c r="AB112" s="62">
+      <c r="AB112" s="61">
         <v>1014</v>
       </c>
-      <c r="AC112" s="62">
+      <c r="AC112" s="61">
         <v>1022</v>
       </c>
-      <c r="AD112" s="62">
+      <c r="AD112" s="61">
         <v>1030</v>
       </c>
-      <c r="AE112" s="62">
+      <c r="AE112" s="61">
         <v>1038</v>
       </c>
-      <c r="AF112" s="62">
+      <c r="AF112" s="61">
         <v>1046</v>
       </c>
-      <c r="AG112" s="62">
+      <c r="AG112" s="61">
         <v>1054</v>
       </c>
-      <c r="AH112" s="63">
+      <c r="AH112" s="62">
         <v>7.5940000000000001E-3</v>
       </c>
     </row>
@@ -22995,693 +22995,693 @@
       </c>
     </row>
     <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="60"/>
-      <c r="C308" s="60"/>
-      <c r="D308" s="60"/>
-      <c r="E308" s="60"/>
-      <c r="F308" s="60"/>
-      <c r="G308" s="60"/>
-      <c r="H308" s="60"/>
-      <c r="I308" s="60"/>
-      <c r="J308" s="60"/>
-      <c r="K308" s="60"/>
-      <c r="L308" s="60"/>
-      <c r="M308" s="60"/>
-      <c r="N308" s="60"/>
-      <c r="O308" s="60"/>
-      <c r="P308" s="60"/>
-      <c r="Q308" s="60"/>
-      <c r="R308" s="60"/>
-      <c r="S308" s="60"/>
-      <c r="T308" s="60"/>
-      <c r="U308" s="60"/>
-      <c r="V308" s="60"/>
-      <c r="W308" s="60"/>
-      <c r="X308" s="60"/>
-      <c r="Y308" s="60"/>
-      <c r="Z308" s="60"/>
-      <c r="AA308" s="60"/>
-      <c r="AB308" s="60"/>
-      <c r="AC308" s="60"/>
-      <c r="AD308" s="60"/>
-      <c r="AE308" s="60"/>
-      <c r="AF308" s="60"/>
-      <c r="AG308" s="60"/>
-      <c r="AH308" s="60"/>
+      <c r="B308" s="54"/>
+      <c r="C308" s="54"/>
+      <c r="D308" s="54"/>
+      <c r="E308" s="54"/>
+      <c r="F308" s="54"/>
+      <c r="G308" s="54"/>
+      <c r="H308" s="54"/>
+      <c r="I308" s="54"/>
+      <c r="J308" s="54"/>
+      <c r="K308" s="54"/>
+      <c r="L308" s="54"/>
+      <c r="M308" s="54"/>
+      <c r="N308" s="54"/>
+      <c r="O308" s="54"/>
+      <c r="P308" s="54"/>
+      <c r="Q308" s="54"/>
+      <c r="R308" s="54"/>
+      <c r="S308" s="54"/>
+      <c r="T308" s="54"/>
+      <c r="U308" s="54"/>
+      <c r="V308" s="54"/>
+      <c r="W308" s="54"/>
+      <c r="X308" s="54"/>
+      <c r="Y308" s="54"/>
+      <c r="Z308" s="54"/>
+      <c r="AA308" s="54"/>
+      <c r="AB308" s="54"/>
+      <c r="AC308" s="54"/>
+      <c r="AD308" s="54"/>
+      <c r="AE308" s="54"/>
+      <c r="AF308" s="54"/>
+      <c r="AG308" s="54"/>
+      <c r="AH308" s="54"/>
     </row>
     <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B511" s="60"/>
-      <c r="C511" s="60"/>
-      <c r="D511" s="60"/>
-      <c r="E511" s="60"/>
-      <c r="F511" s="60"/>
-      <c r="G511" s="60"/>
-      <c r="H511" s="60"/>
-      <c r="I511" s="60"/>
-      <c r="J511" s="60"/>
-      <c r="K511" s="60"/>
-      <c r="L511" s="60"/>
-      <c r="M511" s="60"/>
-      <c r="N511" s="60"/>
-      <c r="O511" s="60"/>
-      <c r="P511" s="60"/>
-      <c r="Q511" s="60"/>
-      <c r="R511" s="60"/>
-      <c r="S511" s="60"/>
-      <c r="T511" s="60"/>
-      <c r="U511" s="60"/>
-      <c r="V511" s="60"/>
-      <c r="W511" s="60"/>
-      <c r="X511" s="60"/>
-      <c r="Y511" s="60"/>
-      <c r="Z511" s="60"/>
-      <c r="AA511" s="60"/>
-      <c r="AB511" s="60"/>
-      <c r="AC511" s="60"/>
-      <c r="AD511" s="60"/>
-      <c r="AE511" s="60"/>
-      <c r="AF511" s="60"/>
-      <c r="AG511" s="60"/>
-      <c r="AH511" s="60"/>
+      <c r="B511" s="54"/>
+      <c r="C511" s="54"/>
+      <c r="D511" s="54"/>
+      <c r="E511" s="54"/>
+      <c r="F511" s="54"/>
+      <c r="G511" s="54"/>
+      <c r="H511" s="54"/>
+      <c r="I511" s="54"/>
+      <c r="J511" s="54"/>
+      <c r="K511" s="54"/>
+      <c r="L511" s="54"/>
+      <c r="M511" s="54"/>
+      <c r="N511" s="54"/>
+      <c r="O511" s="54"/>
+      <c r="P511" s="54"/>
+      <c r="Q511" s="54"/>
+      <c r="R511" s="54"/>
+      <c r="S511" s="54"/>
+      <c r="T511" s="54"/>
+      <c r="U511" s="54"/>
+      <c r="V511" s="54"/>
+      <c r="W511" s="54"/>
+      <c r="X511" s="54"/>
+      <c r="Y511" s="54"/>
+      <c r="Z511" s="54"/>
+      <c r="AA511" s="54"/>
+      <c r="AB511" s="54"/>
+      <c r="AC511" s="54"/>
+      <c r="AD511" s="54"/>
+      <c r="AE511" s="54"/>
+      <c r="AF511" s="54"/>
+      <c r="AG511" s="54"/>
+      <c r="AH511" s="54"/>
     </row>
     <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B712" s="60"/>
-      <c r="C712" s="60"/>
-      <c r="D712" s="60"/>
-      <c r="E712" s="60"/>
-      <c r="F712" s="60"/>
-      <c r="G712" s="60"/>
-      <c r="H712" s="60"/>
-      <c r="I712" s="60"/>
-      <c r="J712" s="60"/>
-      <c r="K712" s="60"/>
-      <c r="L712" s="60"/>
-      <c r="M712" s="60"/>
-      <c r="N712" s="60"/>
-      <c r="O712" s="60"/>
-      <c r="P712" s="60"/>
-      <c r="Q712" s="60"/>
-      <c r="R712" s="60"/>
-      <c r="S712" s="60"/>
-      <c r="T712" s="60"/>
-      <c r="U712" s="60"/>
-      <c r="V712" s="60"/>
-      <c r="W712" s="60"/>
-      <c r="X712" s="60"/>
-      <c r="Y712" s="60"/>
-      <c r="Z712" s="60"/>
-      <c r="AA712" s="60"/>
-      <c r="AB712" s="60"/>
-      <c r="AC712" s="60"/>
-      <c r="AD712" s="60"/>
-      <c r="AE712" s="60"/>
-      <c r="AF712" s="60"/>
-      <c r="AG712" s="60"/>
-      <c r="AH712" s="60"/>
+      <c r="B712" s="54"/>
+      <c r="C712" s="54"/>
+      <c r="D712" s="54"/>
+      <c r="E712" s="54"/>
+      <c r="F712" s="54"/>
+      <c r="G712" s="54"/>
+      <c r="H712" s="54"/>
+      <c r="I712" s="54"/>
+      <c r="J712" s="54"/>
+      <c r="K712" s="54"/>
+      <c r="L712" s="54"/>
+      <c r="M712" s="54"/>
+      <c r="N712" s="54"/>
+      <c r="O712" s="54"/>
+      <c r="P712" s="54"/>
+      <c r="Q712" s="54"/>
+      <c r="R712" s="54"/>
+      <c r="S712" s="54"/>
+      <c r="T712" s="54"/>
+      <c r="U712" s="54"/>
+      <c r="V712" s="54"/>
+      <c r="W712" s="54"/>
+      <c r="X712" s="54"/>
+      <c r="Y712" s="54"/>
+      <c r="Z712" s="54"/>
+      <c r="AA712" s="54"/>
+      <c r="AB712" s="54"/>
+      <c r="AC712" s="54"/>
+      <c r="AD712" s="54"/>
+      <c r="AE712" s="54"/>
+      <c r="AF712" s="54"/>
+      <c r="AG712" s="54"/>
+      <c r="AH712" s="54"/>
     </row>
     <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B887" s="60"/>
-      <c r="C887" s="60"/>
-      <c r="D887" s="60"/>
-      <c r="E887" s="60"/>
-      <c r="F887" s="60"/>
-      <c r="G887" s="60"/>
-      <c r="H887" s="60"/>
-      <c r="I887" s="60"/>
-      <c r="J887" s="60"/>
-      <c r="K887" s="60"/>
-      <c r="L887" s="60"/>
-      <c r="M887" s="60"/>
-      <c r="N887" s="60"/>
-      <c r="O887" s="60"/>
-      <c r="P887" s="60"/>
-      <c r="Q887" s="60"/>
-      <c r="R887" s="60"/>
-      <c r="S887" s="60"/>
-      <c r="T887" s="60"/>
-      <c r="U887" s="60"/>
-      <c r="V887" s="60"/>
-      <c r="W887" s="60"/>
-      <c r="X887" s="60"/>
-      <c r="Y887" s="60"/>
-      <c r="Z887" s="60"/>
-      <c r="AA887" s="60"/>
-      <c r="AB887" s="60"/>
-      <c r="AC887" s="60"/>
-      <c r="AD887" s="60"/>
-      <c r="AE887" s="60"/>
-      <c r="AF887" s="60"/>
-      <c r="AG887" s="60"/>
-      <c r="AH887" s="60"/>
+      <c r="B887" s="54"/>
+      <c r="C887" s="54"/>
+      <c r="D887" s="54"/>
+      <c r="E887" s="54"/>
+      <c r="F887" s="54"/>
+      <c r="G887" s="54"/>
+      <c r="H887" s="54"/>
+      <c r="I887" s="54"/>
+      <c r="J887" s="54"/>
+      <c r="K887" s="54"/>
+      <c r="L887" s="54"/>
+      <c r="M887" s="54"/>
+      <c r="N887" s="54"/>
+      <c r="O887" s="54"/>
+      <c r="P887" s="54"/>
+      <c r="Q887" s="54"/>
+      <c r="R887" s="54"/>
+      <c r="S887" s="54"/>
+      <c r="T887" s="54"/>
+      <c r="U887" s="54"/>
+      <c r="V887" s="54"/>
+      <c r="W887" s="54"/>
+      <c r="X887" s="54"/>
+      <c r="Y887" s="54"/>
+      <c r="Z887" s="54"/>
+      <c r="AA887" s="54"/>
+      <c r="AB887" s="54"/>
+      <c r="AC887" s="54"/>
+      <c r="AD887" s="54"/>
+      <c r="AE887" s="54"/>
+      <c r="AF887" s="54"/>
+      <c r="AG887" s="54"/>
+      <c r="AH887" s="54"/>
     </row>
     <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1100" s="60"/>
-      <c r="C1100" s="60"/>
-      <c r="D1100" s="60"/>
-      <c r="E1100" s="60"/>
-      <c r="F1100" s="60"/>
-      <c r="G1100" s="60"/>
-      <c r="H1100" s="60"/>
-      <c r="I1100" s="60"/>
-      <c r="J1100" s="60"/>
-      <c r="K1100" s="60"/>
-      <c r="L1100" s="60"/>
-      <c r="M1100" s="60"/>
-      <c r="N1100" s="60"/>
-      <c r="O1100" s="60"/>
-      <c r="P1100" s="60"/>
-      <c r="Q1100" s="60"/>
-      <c r="R1100" s="60"/>
-      <c r="S1100" s="60"/>
-      <c r="T1100" s="60"/>
-      <c r="U1100" s="60"/>
-      <c r="V1100" s="60"/>
-      <c r="W1100" s="60"/>
-      <c r="X1100" s="60"/>
-      <c r="Y1100" s="60"/>
-      <c r="Z1100" s="60"/>
-      <c r="AA1100" s="60"/>
-      <c r="AB1100" s="60"/>
-      <c r="AC1100" s="60"/>
-      <c r="AD1100" s="60"/>
-      <c r="AE1100" s="60"/>
-      <c r="AF1100" s="60"/>
-      <c r="AG1100" s="60"/>
-      <c r="AH1100" s="60"/>
+      <c r="B1100" s="54"/>
+      <c r="C1100" s="54"/>
+      <c r="D1100" s="54"/>
+      <c r="E1100" s="54"/>
+      <c r="F1100" s="54"/>
+      <c r="G1100" s="54"/>
+      <c r="H1100" s="54"/>
+      <c r="I1100" s="54"/>
+      <c r="J1100" s="54"/>
+      <c r="K1100" s="54"/>
+      <c r="L1100" s="54"/>
+      <c r="M1100" s="54"/>
+      <c r="N1100" s="54"/>
+      <c r="O1100" s="54"/>
+      <c r="P1100" s="54"/>
+      <c r="Q1100" s="54"/>
+      <c r="R1100" s="54"/>
+      <c r="S1100" s="54"/>
+      <c r="T1100" s="54"/>
+      <c r="U1100" s="54"/>
+      <c r="V1100" s="54"/>
+      <c r="W1100" s="54"/>
+      <c r="X1100" s="54"/>
+      <c r="Y1100" s="54"/>
+      <c r="Z1100" s="54"/>
+      <c r="AA1100" s="54"/>
+      <c r="AB1100" s="54"/>
+      <c r="AC1100" s="54"/>
+      <c r="AD1100" s="54"/>
+      <c r="AE1100" s="54"/>
+      <c r="AF1100" s="54"/>
+      <c r="AG1100" s="54"/>
+      <c r="AH1100" s="54"/>
     </row>
     <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1227" s="60"/>
-      <c r="C1227" s="60"/>
-      <c r="D1227" s="60"/>
-      <c r="E1227" s="60"/>
-      <c r="F1227" s="60"/>
-      <c r="G1227" s="60"/>
-      <c r="H1227" s="60"/>
-      <c r="I1227" s="60"/>
-      <c r="J1227" s="60"/>
-      <c r="K1227" s="60"/>
-      <c r="L1227" s="60"/>
-      <c r="M1227" s="60"/>
-      <c r="N1227" s="60"/>
-      <c r="O1227" s="60"/>
-      <c r="P1227" s="60"/>
-      <c r="Q1227" s="60"/>
-      <c r="R1227" s="60"/>
-      <c r="S1227" s="60"/>
-      <c r="T1227" s="60"/>
-      <c r="U1227" s="60"/>
-      <c r="V1227" s="60"/>
-      <c r="W1227" s="60"/>
-      <c r="X1227" s="60"/>
-      <c r="Y1227" s="60"/>
-      <c r="Z1227" s="60"/>
-      <c r="AA1227" s="60"/>
-      <c r="AB1227" s="60"/>
-      <c r="AC1227" s="60"/>
-      <c r="AD1227" s="60"/>
-      <c r="AE1227" s="60"/>
-      <c r="AF1227" s="60"/>
-      <c r="AG1227" s="60"/>
-      <c r="AH1227" s="60"/>
+      <c r="B1227" s="54"/>
+      <c r="C1227" s="54"/>
+      <c r="D1227" s="54"/>
+      <c r="E1227" s="54"/>
+      <c r="F1227" s="54"/>
+      <c r="G1227" s="54"/>
+      <c r="H1227" s="54"/>
+      <c r="I1227" s="54"/>
+      <c r="J1227" s="54"/>
+      <c r="K1227" s="54"/>
+      <c r="L1227" s="54"/>
+      <c r="M1227" s="54"/>
+      <c r="N1227" s="54"/>
+      <c r="O1227" s="54"/>
+      <c r="P1227" s="54"/>
+      <c r="Q1227" s="54"/>
+      <c r="R1227" s="54"/>
+      <c r="S1227" s="54"/>
+      <c r="T1227" s="54"/>
+      <c r="U1227" s="54"/>
+      <c r="V1227" s="54"/>
+      <c r="W1227" s="54"/>
+      <c r="X1227" s="54"/>
+      <c r="Y1227" s="54"/>
+      <c r="Z1227" s="54"/>
+      <c r="AA1227" s="54"/>
+      <c r="AB1227" s="54"/>
+      <c r="AC1227" s="54"/>
+      <c r="AD1227" s="54"/>
+      <c r="AE1227" s="54"/>
+      <c r="AF1227" s="54"/>
+      <c r="AG1227" s="54"/>
+      <c r="AH1227" s="54"/>
     </row>
     <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1390" s="60"/>
-      <c r="C1390" s="60"/>
-      <c r="D1390" s="60"/>
-      <c r="E1390" s="60"/>
-      <c r="F1390" s="60"/>
-      <c r="G1390" s="60"/>
-      <c r="H1390" s="60"/>
-      <c r="I1390" s="60"/>
-      <c r="J1390" s="60"/>
-      <c r="K1390" s="60"/>
-      <c r="L1390" s="60"/>
-      <c r="M1390" s="60"/>
-      <c r="N1390" s="60"/>
-      <c r="O1390" s="60"/>
-      <c r="P1390" s="60"/>
-      <c r="Q1390" s="60"/>
-      <c r="R1390" s="60"/>
-      <c r="S1390" s="60"/>
-      <c r="T1390" s="60"/>
-      <c r="U1390" s="60"/>
-      <c r="V1390" s="60"/>
-      <c r="W1390" s="60"/>
-      <c r="X1390" s="60"/>
-      <c r="Y1390" s="60"/>
-      <c r="Z1390" s="60"/>
-      <c r="AA1390" s="60"/>
-      <c r="AB1390" s="60"/>
-      <c r="AC1390" s="60"/>
-      <c r="AD1390" s="60"/>
-      <c r="AE1390" s="60"/>
-      <c r="AF1390" s="60"/>
-      <c r="AG1390" s="60"/>
-      <c r="AH1390" s="60"/>
+      <c r="B1390" s="54"/>
+      <c r="C1390" s="54"/>
+      <c r="D1390" s="54"/>
+      <c r="E1390" s="54"/>
+      <c r="F1390" s="54"/>
+      <c r="G1390" s="54"/>
+      <c r="H1390" s="54"/>
+      <c r="I1390" s="54"/>
+      <c r="J1390" s="54"/>
+      <c r="K1390" s="54"/>
+      <c r="L1390" s="54"/>
+      <c r="M1390" s="54"/>
+      <c r="N1390" s="54"/>
+      <c r="O1390" s="54"/>
+      <c r="P1390" s="54"/>
+      <c r="Q1390" s="54"/>
+      <c r="R1390" s="54"/>
+      <c r="S1390" s="54"/>
+      <c r="T1390" s="54"/>
+      <c r="U1390" s="54"/>
+      <c r="V1390" s="54"/>
+      <c r="W1390" s="54"/>
+      <c r="X1390" s="54"/>
+      <c r="Y1390" s="54"/>
+      <c r="Z1390" s="54"/>
+      <c r="AA1390" s="54"/>
+      <c r="AB1390" s="54"/>
+      <c r="AC1390" s="54"/>
+      <c r="AD1390" s="54"/>
+      <c r="AE1390" s="54"/>
+      <c r="AF1390" s="54"/>
+      <c r="AG1390" s="54"/>
+      <c r="AH1390" s="54"/>
     </row>
     <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1502" s="60"/>
-      <c r="C1502" s="60"/>
-      <c r="D1502" s="60"/>
-      <c r="E1502" s="60"/>
-      <c r="F1502" s="60"/>
-      <c r="G1502" s="60"/>
-      <c r="H1502" s="60"/>
-      <c r="I1502" s="60"/>
-      <c r="J1502" s="60"/>
-      <c r="K1502" s="60"/>
-      <c r="L1502" s="60"/>
-      <c r="M1502" s="60"/>
-      <c r="N1502" s="60"/>
-      <c r="O1502" s="60"/>
-      <c r="P1502" s="60"/>
-      <c r="Q1502" s="60"/>
-      <c r="R1502" s="60"/>
-      <c r="S1502" s="60"/>
-      <c r="T1502" s="60"/>
-      <c r="U1502" s="60"/>
-      <c r="V1502" s="60"/>
-      <c r="W1502" s="60"/>
-      <c r="X1502" s="60"/>
-      <c r="Y1502" s="60"/>
-      <c r="Z1502" s="60"/>
-      <c r="AA1502" s="60"/>
-      <c r="AB1502" s="60"/>
-      <c r="AC1502" s="60"/>
-      <c r="AD1502" s="60"/>
-      <c r="AE1502" s="60"/>
-      <c r="AF1502" s="60"/>
-      <c r="AG1502" s="60"/>
-      <c r="AH1502" s="60"/>
+      <c r="B1502" s="54"/>
+      <c r="C1502" s="54"/>
+      <c r="D1502" s="54"/>
+      <c r="E1502" s="54"/>
+      <c r="F1502" s="54"/>
+      <c r="G1502" s="54"/>
+      <c r="H1502" s="54"/>
+      <c r="I1502" s="54"/>
+      <c r="J1502" s="54"/>
+      <c r="K1502" s="54"/>
+      <c r="L1502" s="54"/>
+      <c r="M1502" s="54"/>
+      <c r="N1502" s="54"/>
+      <c r="O1502" s="54"/>
+      <c r="P1502" s="54"/>
+      <c r="Q1502" s="54"/>
+      <c r="R1502" s="54"/>
+      <c r="S1502" s="54"/>
+      <c r="T1502" s="54"/>
+      <c r="U1502" s="54"/>
+      <c r="V1502" s="54"/>
+      <c r="W1502" s="54"/>
+      <c r="X1502" s="54"/>
+      <c r="Y1502" s="54"/>
+      <c r="Z1502" s="54"/>
+      <c r="AA1502" s="54"/>
+      <c r="AB1502" s="54"/>
+      <c r="AC1502" s="54"/>
+      <c r="AD1502" s="54"/>
+      <c r="AE1502" s="54"/>
+      <c r="AF1502" s="54"/>
+      <c r="AG1502" s="54"/>
+      <c r="AH1502" s="54"/>
     </row>
     <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1604" s="60"/>
-      <c r="C1604" s="60"/>
-      <c r="D1604" s="60"/>
-      <c r="E1604" s="60"/>
-      <c r="F1604" s="60"/>
-      <c r="G1604" s="60"/>
-      <c r="H1604" s="60"/>
-      <c r="I1604" s="60"/>
-      <c r="J1604" s="60"/>
-      <c r="K1604" s="60"/>
-      <c r="L1604" s="60"/>
-      <c r="M1604" s="60"/>
-      <c r="N1604" s="60"/>
-      <c r="O1604" s="60"/>
-      <c r="P1604" s="60"/>
-      <c r="Q1604" s="60"/>
-      <c r="R1604" s="60"/>
-      <c r="S1604" s="60"/>
-      <c r="T1604" s="60"/>
-      <c r="U1604" s="60"/>
-      <c r="V1604" s="60"/>
-      <c r="W1604" s="60"/>
-      <c r="X1604" s="60"/>
-      <c r="Y1604" s="60"/>
-      <c r="Z1604" s="60"/>
-      <c r="AA1604" s="60"/>
-      <c r="AB1604" s="60"/>
-      <c r="AC1604" s="60"/>
-      <c r="AD1604" s="60"/>
-      <c r="AE1604" s="60"/>
-      <c r="AF1604" s="60"/>
-      <c r="AG1604" s="60"/>
-      <c r="AH1604" s="60"/>
+      <c r="B1604" s="54"/>
+      <c r="C1604" s="54"/>
+      <c r="D1604" s="54"/>
+      <c r="E1604" s="54"/>
+      <c r="F1604" s="54"/>
+      <c r="G1604" s="54"/>
+      <c r="H1604" s="54"/>
+      <c r="I1604" s="54"/>
+      <c r="J1604" s="54"/>
+      <c r="K1604" s="54"/>
+      <c r="L1604" s="54"/>
+      <c r="M1604" s="54"/>
+      <c r="N1604" s="54"/>
+      <c r="O1604" s="54"/>
+      <c r="P1604" s="54"/>
+      <c r="Q1604" s="54"/>
+      <c r="R1604" s="54"/>
+      <c r="S1604" s="54"/>
+      <c r="T1604" s="54"/>
+      <c r="U1604" s="54"/>
+      <c r="V1604" s="54"/>
+      <c r="W1604" s="54"/>
+      <c r="X1604" s="54"/>
+      <c r="Y1604" s="54"/>
+      <c r="Z1604" s="54"/>
+      <c r="AA1604" s="54"/>
+      <c r="AB1604" s="54"/>
+      <c r="AC1604" s="54"/>
+      <c r="AD1604" s="54"/>
+      <c r="AE1604" s="54"/>
+      <c r="AF1604" s="54"/>
+      <c r="AG1604" s="54"/>
+      <c r="AH1604" s="54"/>
     </row>
     <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1698" s="60"/>
-      <c r="C1698" s="60"/>
-      <c r="D1698" s="60"/>
-      <c r="E1698" s="60"/>
-      <c r="F1698" s="60"/>
-      <c r="G1698" s="60"/>
-      <c r="H1698" s="60"/>
-      <c r="I1698" s="60"/>
-      <c r="J1698" s="60"/>
-      <c r="K1698" s="60"/>
-      <c r="L1698" s="60"/>
-      <c r="M1698" s="60"/>
-      <c r="N1698" s="60"/>
-      <c r="O1698" s="60"/>
-      <c r="P1698" s="60"/>
-      <c r="Q1698" s="60"/>
-      <c r="R1698" s="60"/>
-      <c r="S1698" s="60"/>
-      <c r="T1698" s="60"/>
-      <c r="U1698" s="60"/>
-      <c r="V1698" s="60"/>
-      <c r="W1698" s="60"/>
-      <c r="X1698" s="60"/>
-      <c r="Y1698" s="60"/>
-      <c r="Z1698" s="60"/>
-      <c r="AA1698" s="60"/>
-      <c r="AB1698" s="60"/>
-      <c r="AC1698" s="60"/>
-      <c r="AD1698" s="60"/>
-      <c r="AE1698" s="60"/>
-      <c r="AF1698" s="60"/>
-      <c r="AG1698" s="60"/>
-      <c r="AH1698" s="60"/>
+      <c r="B1698" s="54"/>
+      <c r="C1698" s="54"/>
+      <c r="D1698" s="54"/>
+      <c r="E1698" s="54"/>
+      <c r="F1698" s="54"/>
+      <c r="G1698" s="54"/>
+      <c r="H1698" s="54"/>
+      <c r="I1698" s="54"/>
+      <c r="J1698" s="54"/>
+      <c r="K1698" s="54"/>
+      <c r="L1698" s="54"/>
+      <c r="M1698" s="54"/>
+      <c r="N1698" s="54"/>
+      <c r="O1698" s="54"/>
+      <c r="P1698" s="54"/>
+      <c r="Q1698" s="54"/>
+      <c r="R1698" s="54"/>
+      <c r="S1698" s="54"/>
+      <c r="T1698" s="54"/>
+      <c r="U1698" s="54"/>
+      <c r="V1698" s="54"/>
+      <c r="W1698" s="54"/>
+      <c r="X1698" s="54"/>
+      <c r="Y1698" s="54"/>
+      <c r="Z1698" s="54"/>
+      <c r="AA1698" s="54"/>
+      <c r="AB1698" s="54"/>
+      <c r="AC1698" s="54"/>
+      <c r="AD1698" s="54"/>
+      <c r="AE1698" s="54"/>
+      <c r="AF1698" s="54"/>
+      <c r="AG1698" s="54"/>
+      <c r="AH1698" s="54"/>
     </row>
     <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1945" s="60"/>
-      <c r="C1945" s="60"/>
-      <c r="D1945" s="60"/>
-      <c r="E1945" s="60"/>
-      <c r="F1945" s="60"/>
-      <c r="G1945" s="60"/>
-      <c r="H1945" s="60"/>
-      <c r="I1945" s="60"/>
-      <c r="J1945" s="60"/>
-      <c r="K1945" s="60"/>
-      <c r="L1945" s="60"/>
-      <c r="M1945" s="60"/>
-      <c r="N1945" s="60"/>
-      <c r="O1945" s="60"/>
-      <c r="P1945" s="60"/>
-      <c r="Q1945" s="60"/>
-      <c r="R1945" s="60"/>
-      <c r="S1945" s="60"/>
-      <c r="T1945" s="60"/>
-      <c r="U1945" s="60"/>
-      <c r="V1945" s="60"/>
-      <c r="W1945" s="60"/>
-      <c r="X1945" s="60"/>
-      <c r="Y1945" s="60"/>
-      <c r="Z1945" s="60"/>
-      <c r="AA1945" s="60"/>
-      <c r="AB1945" s="60"/>
-      <c r="AC1945" s="60"/>
-      <c r="AD1945" s="60"/>
-      <c r="AE1945" s="60"/>
-      <c r="AF1945" s="60"/>
-      <c r="AG1945" s="60"/>
-      <c r="AH1945" s="60"/>
+      <c r="B1945" s="54"/>
+      <c r="C1945" s="54"/>
+      <c r="D1945" s="54"/>
+      <c r="E1945" s="54"/>
+      <c r="F1945" s="54"/>
+      <c r="G1945" s="54"/>
+      <c r="H1945" s="54"/>
+      <c r="I1945" s="54"/>
+      <c r="J1945" s="54"/>
+      <c r="K1945" s="54"/>
+      <c r="L1945" s="54"/>
+      <c r="M1945" s="54"/>
+      <c r="N1945" s="54"/>
+      <c r="O1945" s="54"/>
+      <c r="P1945" s="54"/>
+      <c r="Q1945" s="54"/>
+      <c r="R1945" s="54"/>
+      <c r="S1945" s="54"/>
+      <c r="T1945" s="54"/>
+      <c r="U1945" s="54"/>
+      <c r="V1945" s="54"/>
+      <c r="W1945" s="54"/>
+      <c r="X1945" s="54"/>
+      <c r="Y1945" s="54"/>
+      <c r="Z1945" s="54"/>
+      <c r="AA1945" s="54"/>
+      <c r="AB1945" s="54"/>
+      <c r="AC1945" s="54"/>
+      <c r="AD1945" s="54"/>
+      <c r="AE1945" s="54"/>
+      <c r="AF1945" s="54"/>
+      <c r="AG1945" s="54"/>
+      <c r="AH1945" s="54"/>
     </row>
     <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2031" s="60"/>
-      <c r="C2031" s="60"/>
-      <c r="D2031" s="60"/>
-      <c r="E2031" s="60"/>
-      <c r="F2031" s="60"/>
-      <c r="G2031" s="60"/>
-      <c r="H2031" s="60"/>
-      <c r="I2031" s="60"/>
-      <c r="J2031" s="60"/>
-      <c r="K2031" s="60"/>
-      <c r="L2031" s="60"/>
-      <c r="M2031" s="60"/>
-      <c r="N2031" s="60"/>
-      <c r="O2031" s="60"/>
-      <c r="P2031" s="60"/>
-      <c r="Q2031" s="60"/>
-      <c r="R2031" s="60"/>
-      <c r="S2031" s="60"/>
-      <c r="T2031" s="60"/>
-      <c r="U2031" s="60"/>
-      <c r="V2031" s="60"/>
-      <c r="W2031" s="60"/>
-      <c r="X2031" s="60"/>
-      <c r="Y2031" s="60"/>
-      <c r="Z2031" s="60"/>
-      <c r="AA2031" s="60"/>
-      <c r="AB2031" s="60"/>
-      <c r="AC2031" s="60"/>
-      <c r="AD2031" s="60"/>
-      <c r="AE2031" s="60"/>
-      <c r="AF2031" s="60"/>
-      <c r="AG2031" s="60"/>
-      <c r="AH2031" s="60"/>
+      <c r="B2031" s="54"/>
+      <c r="C2031" s="54"/>
+      <c r="D2031" s="54"/>
+      <c r="E2031" s="54"/>
+      <c r="F2031" s="54"/>
+      <c r="G2031" s="54"/>
+      <c r="H2031" s="54"/>
+      <c r="I2031" s="54"/>
+      <c r="J2031" s="54"/>
+      <c r="K2031" s="54"/>
+      <c r="L2031" s="54"/>
+      <c r="M2031" s="54"/>
+      <c r="N2031" s="54"/>
+      <c r="O2031" s="54"/>
+      <c r="P2031" s="54"/>
+      <c r="Q2031" s="54"/>
+      <c r="R2031" s="54"/>
+      <c r="S2031" s="54"/>
+      <c r="T2031" s="54"/>
+      <c r="U2031" s="54"/>
+      <c r="V2031" s="54"/>
+      <c r="W2031" s="54"/>
+      <c r="X2031" s="54"/>
+      <c r="Y2031" s="54"/>
+      <c r="Z2031" s="54"/>
+      <c r="AA2031" s="54"/>
+      <c r="AB2031" s="54"/>
+      <c r="AC2031" s="54"/>
+      <c r="AD2031" s="54"/>
+      <c r="AE2031" s="54"/>
+      <c r="AF2031" s="54"/>
+      <c r="AG2031" s="54"/>
+      <c r="AH2031" s="54"/>
     </row>
     <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2153" s="60"/>
-      <c r="C2153" s="60"/>
-      <c r="D2153" s="60"/>
-      <c r="E2153" s="60"/>
-      <c r="F2153" s="60"/>
-      <c r="G2153" s="60"/>
-      <c r="H2153" s="60"/>
-      <c r="I2153" s="60"/>
-      <c r="J2153" s="60"/>
-      <c r="K2153" s="60"/>
-      <c r="L2153" s="60"/>
-      <c r="M2153" s="60"/>
-      <c r="N2153" s="60"/>
-      <c r="O2153" s="60"/>
-      <c r="P2153" s="60"/>
-      <c r="Q2153" s="60"/>
-      <c r="R2153" s="60"/>
-      <c r="S2153" s="60"/>
-      <c r="T2153" s="60"/>
-      <c r="U2153" s="60"/>
-      <c r="V2153" s="60"/>
-      <c r="W2153" s="60"/>
-      <c r="X2153" s="60"/>
-      <c r="Y2153" s="60"/>
-      <c r="Z2153" s="60"/>
-      <c r="AA2153" s="60"/>
-      <c r="AB2153" s="60"/>
-      <c r="AC2153" s="60"/>
-      <c r="AD2153" s="60"/>
-      <c r="AE2153" s="60"/>
-      <c r="AF2153" s="60"/>
-      <c r="AG2153" s="60"/>
-      <c r="AH2153" s="60"/>
+      <c r="B2153" s="54"/>
+      <c r="C2153" s="54"/>
+      <c r="D2153" s="54"/>
+      <c r="E2153" s="54"/>
+      <c r="F2153" s="54"/>
+      <c r="G2153" s="54"/>
+      <c r="H2153" s="54"/>
+      <c r="I2153" s="54"/>
+      <c r="J2153" s="54"/>
+      <c r="K2153" s="54"/>
+      <c r="L2153" s="54"/>
+      <c r="M2153" s="54"/>
+      <c r="N2153" s="54"/>
+      <c r="O2153" s="54"/>
+      <c r="P2153" s="54"/>
+      <c r="Q2153" s="54"/>
+      <c r="R2153" s="54"/>
+      <c r="S2153" s="54"/>
+      <c r="T2153" s="54"/>
+      <c r="U2153" s="54"/>
+      <c r="V2153" s="54"/>
+      <c r="W2153" s="54"/>
+      <c r="X2153" s="54"/>
+      <c r="Y2153" s="54"/>
+      <c r="Z2153" s="54"/>
+      <c r="AA2153" s="54"/>
+      <c r="AB2153" s="54"/>
+      <c r="AC2153" s="54"/>
+      <c r="AD2153" s="54"/>
+      <c r="AE2153" s="54"/>
+      <c r="AF2153" s="54"/>
+      <c r="AG2153" s="54"/>
+      <c r="AH2153" s="54"/>
     </row>
     <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2317" s="60"/>
-      <c r="C2317" s="60"/>
-      <c r="D2317" s="60"/>
-      <c r="E2317" s="60"/>
-      <c r="F2317" s="60"/>
-      <c r="G2317" s="60"/>
-      <c r="H2317" s="60"/>
-      <c r="I2317" s="60"/>
-      <c r="J2317" s="60"/>
-      <c r="K2317" s="60"/>
-      <c r="L2317" s="60"/>
-      <c r="M2317" s="60"/>
-      <c r="N2317" s="60"/>
-      <c r="O2317" s="60"/>
-      <c r="P2317" s="60"/>
-      <c r="Q2317" s="60"/>
-      <c r="R2317" s="60"/>
-      <c r="S2317" s="60"/>
-      <c r="T2317" s="60"/>
-      <c r="U2317" s="60"/>
-      <c r="V2317" s="60"/>
-      <c r="W2317" s="60"/>
-      <c r="X2317" s="60"/>
-      <c r="Y2317" s="60"/>
-      <c r="Z2317" s="60"/>
-      <c r="AA2317" s="60"/>
-      <c r="AB2317" s="60"/>
-      <c r="AC2317" s="60"/>
-      <c r="AD2317" s="60"/>
-      <c r="AE2317" s="60"/>
-      <c r="AF2317" s="60"/>
-      <c r="AG2317" s="60"/>
-      <c r="AH2317" s="60"/>
+      <c r="B2317" s="54"/>
+      <c r="C2317" s="54"/>
+      <c r="D2317" s="54"/>
+      <c r="E2317" s="54"/>
+      <c r="F2317" s="54"/>
+      <c r="G2317" s="54"/>
+      <c r="H2317" s="54"/>
+      <c r="I2317" s="54"/>
+      <c r="J2317" s="54"/>
+      <c r="K2317" s="54"/>
+      <c r="L2317" s="54"/>
+      <c r="M2317" s="54"/>
+      <c r="N2317" s="54"/>
+      <c r="O2317" s="54"/>
+      <c r="P2317" s="54"/>
+      <c r="Q2317" s="54"/>
+      <c r="R2317" s="54"/>
+      <c r="S2317" s="54"/>
+      <c r="T2317" s="54"/>
+      <c r="U2317" s="54"/>
+      <c r="V2317" s="54"/>
+      <c r="W2317" s="54"/>
+      <c r="X2317" s="54"/>
+      <c r="Y2317" s="54"/>
+      <c r="Z2317" s="54"/>
+      <c r="AA2317" s="54"/>
+      <c r="AB2317" s="54"/>
+      <c r="AC2317" s="54"/>
+      <c r="AD2317" s="54"/>
+      <c r="AE2317" s="54"/>
+      <c r="AF2317" s="54"/>
+      <c r="AG2317" s="54"/>
+      <c r="AH2317" s="54"/>
     </row>
     <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2419" s="60"/>
-      <c r="C2419" s="60"/>
-      <c r="D2419" s="60"/>
-      <c r="E2419" s="60"/>
-      <c r="F2419" s="60"/>
-      <c r="G2419" s="60"/>
-      <c r="H2419" s="60"/>
-      <c r="I2419" s="60"/>
-      <c r="J2419" s="60"/>
-      <c r="K2419" s="60"/>
-      <c r="L2419" s="60"/>
-      <c r="M2419" s="60"/>
-      <c r="N2419" s="60"/>
-      <c r="O2419" s="60"/>
-      <c r="P2419" s="60"/>
-      <c r="Q2419" s="60"/>
-      <c r="R2419" s="60"/>
-      <c r="S2419" s="60"/>
-      <c r="T2419" s="60"/>
-      <c r="U2419" s="60"/>
-      <c r="V2419" s="60"/>
-      <c r="W2419" s="60"/>
-      <c r="X2419" s="60"/>
-      <c r="Y2419" s="60"/>
-      <c r="Z2419" s="60"/>
-      <c r="AA2419" s="60"/>
-      <c r="AB2419" s="60"/>
-      <c r="AC2419" s="60"/>
-      <c r="AD2419" s="60"/>
-      <c r="AE2419" s="60"/>
-      <c r="AF2419" s="60"/>
-      <c r="AG2419" s="60"/>
-      <c r="AH2419" s="60"/>
+      <c r="B2419" s="54"/>
+      <c r="C2419" s="54"/>
+      <c r="D2419" s="54"/>
+      <c r="E2419" s="54"/>
+      <c r="F2419" s="54"/>
+      <c r="G2419" s="54"/>
+      <c r="H2419" s="54"/>
+      <c r="I2419" s="54"/>
+      <c r="J2419" s="54"/>
+      <c r="K2419" s="54"/>
+      <c r="L2419" s="54"/>
+      <c r="M2419" s="54"/>
+      <c r="N2419" s="54"/>
+      <c r="O2419" s="54"/>
+      <c r="P2419" s="54"/>
+      <c r="Q2419" s="54"/>
+      <c r="R2419" s="54"/>
+      <c r="S2419" s="54"/>
+      <c r="T2419" s="54"/>
+      <c r="U2419" s="54"/>
+      <c r="V2419" s="54"/>
+      <c r="W2419" s="54"/>
+      <c r="X2419" s="54"/>
+      <c r="Y2419" s="54"/>
+      <c r="Z2419" s="54"/>
+      <c r="AA2419" s="54"/>
+      <c r="AB2419" s="54"/>
+      <c r="AC2419" s="54"/>
+      <c r="AD2419" s="54"/>
+      <c r="AE2419" s="54"/>
+      <c r="AF2419" s="54"/>
+      <c r="AG2419" s="54"/>
+      <c r="AH2419" s="54"/>
     </row>
     <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2509" s="60"/>
-      <c r="C2509" s="60"/>
-      <c r="D2509" s="60"/>
-      <c r="E2509" s="60"/>
-      <c r="F2509" s="60"/>
-      <c r="G2509" s="60"/>
-      <c r="H2509" s="60"/>
-      <c r="I2509" s="60"/>
-      <c r="J2509" s="60"/>
-      <c r="K2509" s="60"/>
-      <c r="L2509" s="60"/>
-      <c r="M2509" s="60"/>
-      <c r="N2509" s="60"/>
-      <c r="O2509" s="60"/>
-      <c r="P2509" s="60"/>
-      <c r="Q2509" s="60"/>
-      <c r="R2509" s="60"/>
-      <c r="S2509" s="60"/>
-      <c r="T2509" s="60"/>
-      <c r="U2509" s="60"/>
-      <c r="V2509" s="60"/>
-      <c r="W2509" s="60"/>
-      <c r="X2509" s="60"/>
-      <c r="Y2509" s="60"/>
-      <c r="Z2509" s="60"/>
-      <c r="AA2509" s="60"/>
-      <c r="AB2509" s="60"/>
-      <c r="AC2509" s="60"/>
-      <c r="AD2509" s="60"/>
-      <c r="AE2509" s="60"/>
-      <c r="AF2509" s="60"/>
-      <c r="AG2509" s="60"/>
-      <c r="AH2509" s="60"/>
+      <c r="B2509" s="54"/>
+      <c r="C2509" s="54"/>
+      <c r="D2509" s="54"/>
+      <c r="E2509" s="54"/>
+      <c r="F2509" s="54"/>
+      <c r="G2509" s="54"/>
+      <c r="H2509" s="54"/>
+      <c r="I2509" s="54"/>
+      <c r="J2509" s="54"/>
+      <c r="K2509" s="54"/>
+      <c r="L2509" s="54"/>
+      <c r="M2509" s="54"/>
+      <c r="N2509" s="54"/>
+      <c r="O2509" s="54"/>
+      <c r="P2509" s="54"/>
+      <c r="Q2509" s="54"/>
+      <c r="R2509" s="54"/>
+      <c r="S2509" s="54"/>
+      <c r="T2509" s="54"/>
+      <c r="U2509" s="54"/>
+      <c r="V2509" s="54"/>
+      <c r="W2509" s="54"/>
+      <c r="X2509" s="54"/>
+      <c r="Y2509" s="54"/>
+      <c r="Z2509" s="54"/>
+      <c r="AA2509" s="54"/>
+      <c r="AB2509" s="54"/>
+      <c r="AC2509" s="54"/>
+      <c r="AD2509" s="54"/>
+      <c r="AE2509" s="54"/>
+      <c r="AF2509" s="54"/>
+      <c r="AG2509" s="54"/>
+      <c r="AH2509" s="54"/>
     </row>
     <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2598" s="60"/>
-      <c r="C2598" s="60"/>
-      <c r="D2598" s="60"/>
-      <c r="E2598" s="60"/>
-      <c r="F2598" s="60"/>
-      <c r="G2598" s="60"/>
-      <c r="H2598" s="60"/>
-      <c r="I2598" s="60"/>
-      <c r="J2598" s="60"/>
-      <c r="K2598" s="60"/>
-      <c r="L2598" s="60"/>
-      <c r="M2598" s="60"/>
-      <c r="N2598" s="60"/>
-      <c r="O2598" s="60"/>
-      <c r="P2598" s="60"/>
-      <c r="Q2598" s="60"/>
-      <c r="R2598" s="60"/>
-      <c r="S2598" s="60"/>
-      <c r="T2598" s="60"/>
-      <c r="U2598" s="60"/>
-      <c r="V2598" s="60"/>
-      <c r="W2598" s="60"/>
-      <c r="X2598" s="60"/>
-      <c r="Y2598" s="60"/>
-      <c r="Z2598" s="60"/>
-      <c r="AA2598" s="60"/>
-      <c r="AB2598" s="60"/>
-      <c r="AC2598" s="60"/>
-      <c r="AD2598" s="60"/>
-      <c r="AE2598" s="60"/>
-      <c r="AF2598" s="60"/>
-      <c r="AG2598" s="60"/>
-      <c r="AH2598" s="60"/>
+      <c r="B2598" s="54"/>
+      <c r="C2598" s="54"/>
+      <c r="D2598" s="54"/>
+      <c r="E2598" s="54"/>
+      <c r="F2598" s="54"/>
+      <c r="G2598" s="54"/>
+      <c r="H2598" s="54"/>
+      <c r="I2598" s="54"/>
+      <c r="J2598" s="54"/>
+      <c r="K2598" s="54"/>
+      <c r="L2598" s="54"/>
+      <c r="M2598" s="54"/>
+      <c r="N2598" s="54"/>
+      <c r="O2598" s="54"/>
+      <c r="P2598" s="54"/>
+      <c r="Q2598" s="54"/>
+      <c r="R2598" s="54"/>
+      <c r="S2598" s="54"/>
+      <c r="T2598" s="54"/>
+      <c r="U2598" s="54"/>
+      <c r="V2598" s="54"/>
+      <c r="W2598" s="54"/>
+      <c r="X2598" s="54"/>
+      <c r="Y2598" s="54"/>
+      <c r="Z2598" s="54"/>
+      <c r="AA2598" s="54"/>
+      <c r="AB2598" s="54"/>
+      <c r="AC2598" s="54"/>
+      <c r="AD2598" s="54"/>
+      <c r="AE2598" s="54"/>
+      <c r="AF2598" s="54"/>
+      <c r="AG2598" s="54"/>
+      <c r="AH2598" s="54"/>
     </row>
     <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2719" s="60"/>
-      <c r="C2719" s="60"/>
-      <c r="D2719" s="60"/>
-      <c r="E2719" s="60"/>
-      <c r="F2719" s="60"/>
-      <c r="G2719" s="60"/>
-      <c r="H2719" s="60"/>
-      <c r="I2719" s="60"/>
-      <c r="J2719" s="60"/>
-      <c r="K2719" s="60"/>
-      <c r="L2719" s="60"/>
-      <c r="M2719" s="60"/>
-      <c r="N2719" s="60"/>
-      <c r="O2719" s="60"/>
-      <c r="P2719" s="60"/>
-      <c r="Q2719" s="60"/>
-      <c r="R2719" s="60"/>
-      <c r="S2719" s="60"/>
-      <c r="T2719" s="60"/>
-      <c r="U2719" s="60"/>
-      <c r="V2719" s="60"/>
-      <c r="W2719" s="60"/>
-      <c r="X2719" s="60"/>
-      <c r="Y2719" s="60"/>
-      <c r="Z2719" s="60"/>
-      <c r="AA2719" s="60"/>
-      <c r="AB2719" s="60"/>
-      <c r="AC2719" s="60"/>
-      <c r="AD2719" s="60"/>
-      <c r="AE2719" s="60"/>
-      <c r="AF2719" s="60"/>
-      <c r="AG2719" s="60"/>
-      <c r="AH2719" s="60"/>
+      <c r="B2719" s="54"/>
+      <c r="C2719" s="54"/>
+      <c r="D2719" s="54"/>
+      <c r="E2719" s="54"/>
+      <c r="F2719" s="54"/>
+      <c r="G2719" s="54"/>
+      <c r="H2719" s="54"/>
+      <c r="I2719" s="54"/>
+      <c r="J2719" s="54"/>
+      <c r="K2719" s="54"/>
+      <c r="L2719" s="54"/>
+      <c r="M2719" s="54"/>
+      <c r="N2719" s="54"/>
+      <c r="O2719" s="54"/>
+      <c r="P2719" s="54"/>
+      <c r="Q2719" s="54"/>
+      <c r="R2719" s="54"/>
+      <c r="S2719" s="54"/>
+      <c r="T2719" s="54"/>
+      <c r="U2719" s="54"/>
+      <c r="V2719" s="54"/>
+      <c r="W2719" s="54"/>
+      <c r="X2719" s="54"/>
+      <c r="Y2719" s="54"/>
+      <c r="Z2719" s="54"/>
+      <c r="AA2719" s="54"/>
+      <c r="AB2719" s="54"/>
+      <c r="AC2719" s="54"/>
+      <c r="AD2719" s="54"/>
+      <c r="AE2719" s="54"/>
+      <c r="AF2719" s="54"/>
+      <c r="AG2719" s="54"/>
+      <c r="AH2719" s="54"/>
     </row>
     <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2837" s="60"/>
-      <c r="C2837" s="60"/>
-      <c r="D2837" s="60"/>
-      <c r="E2837" s="60"/>
-      <c r="F2837" s="60"/>
-      <c r="G2837" s="60"/>
-      <c r="H2837" s="60"/>
-      <c r="I2837" s="60"/>
-      <c r="J2837" s="60"/>
-      <c r="K2837" s="60"/>
-      <c r="L2837" s="60"/>
-      <c r="M2837" s="60"/>
-      <c r="N2837" s="60"/>
-      <c r="O2837" s="60"/>
-      <c r="P2837" s="60"/>
-      <c r="Q2837" s="60"/>
-      <c r="R2837" s="60"/>
-      <c r="S2837" s="60"/>
-      <c r="T2837" s="60"/>
-      <c r="U2837" s="60"/>
-      <c r="V2837" s="60"/>
-      <c r="W2837" s="60"/>
-      <c r="X2837" s="60"/>
-      <c r="Y2837" s="60"/>
-      <c r="Z2837" s="60"/>
-      <c r="AA2837" s="60"/>
-      <c r="AB2837" s="60"/>
-      <c r="AC2837" s="60"/>
-      <c r="AD2837" s="60"/>
-      <c r="AE2837" s="60"/>
-      <c r="AF2837" s="60"/>
-      <c r="AG2837" s="60"/>
-      <c r="AH2837" s="60"/>
+      <c r="B2837" s="54"/>
+      <c r="C2837" s="54"/>
+      <c r="D2837" s="54"/>
+      <c r="E2837" s="54"/>
+      <c r="F2837" s="54"/>
+      <c r="G2837" s="54"/>
+      <c r="H2837" s="54"/>
+      <c r="I2837" s="54"/>
+      <c r="J2837" s="54"/>
+      <c r="K2837" s="54"/>
+      <c r="L2837" s="54"/>
+      <c r="M2837" s="54"/>
+      <c r="N2837" s="54"/>
+      <c r="O2837" s="54"/>
+      <c r="P2837" s="54"/>
+      <c r="Q2837" s="54"/>
+      <c r="R2837" s="54"/>
+      <c r="S2837" s="54"/>
+      <c r="T2837" s="54"/>
+      <c r="U2837" s="54"/>
+      <c r="V2837" s="54"/>
+      <c r="W2837" s="54"/>
+      <c r="X2837" s="54"/>
+      <c r="Y2837" s="54"/>
+      <c r="Z2837" s="54"/>
+      <c r="AA2837" s="54"/>
+      <c r="AB2837" s="54"/>
+      <c r="AC2837" s="54"/>
+      <c r="AD2837" s="54"/>
+      <c r="AE2837" s="54"/>
+      <c r="AF2837" s="54"/>
+      <c r="AG2837" s="54"/>
+      <c r="AH2837" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B122:AG122"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2153:AH2153"/>
     <mergeCell ref="B2317:AH2317"/>
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B2598:AH2598"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2719:AH2719"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B1100:AH1100"/>
-    <mergeCell ref="B1227:AH1227"/>
-    <mergeCell ref="B1390:AH1390"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B122:AG122"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
